--- a/docs/Excel/assets/04-wurfweite-lsg.xlsx
+++ b/docs/Excel/assets/04-wurfweite-lsg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\balz\git_code\lebalz\ofi-blog\docs\Excel\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDD4F5-1B03-4628-B1B8-51CB9D72DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37AF9A1-47EA-4788-B5A4-2490FEEDD7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{CB7EDE41-CE7E-42C5-A894-C731A9A29DCC}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -338,1129 +338,1129 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.170232098470884</c:v>
+                  <c:v>0.15713484026367722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34046419694176799</c:v>
+                  <c:v>0.31426968052735443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51069629541265193</c:v>
+                  <c:v>0.47140452079103168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68092839388353599</c:v>
+                  <c:v>0.62853936105470887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85116049235442004</c:v>
+                  <c:v>0.78567420131838628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0213925908253039</c:v>
+                  <c:v>0.94280904158206336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1916246892961881</c:v>
+                  <c:v>1.0999438818457408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.361856787767072</c:v>
+                  <c:v>1.2570787221094177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5320888862379558</c:v>
+                  <c:v>1.4142135623730949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7023209847088401</c:v>
+                  <c:v>1.5713484026367726</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8725530831797239</c:v>
+                  <c:v>1.7284832429004495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0427851816506077</c:v>
+                  <c:v>1.8856180831641267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.213017280121492</c:v>
+                  <c:v>2.0427529234278041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3832493785923763</c:v>
+                  <c:v>2.1998877636914815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5534814770632597</c:v>
+                  <c:v>2.3570226039551585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7237135755341439</c:v>
+                  <c:v>2.5141574442188355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8939456740050282</c:v>
+                  <c:v>2.6712922844825133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0641777724759116</c:v>
+                  <c:v>2.8284271247461898</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2344098709467963</c:v>
+                  <c:v>2.9855619650098677</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4046419694176802</c:v>
+                  <c:v>3.1426968052735451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5748740678885635</c:v>
+                  <c:v>3.2998316455372216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7451061663594478</c:v>
+                  <c:v>3.456966485800899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9153382648303316</c:v>
+                  <c:v>3.614101326064576</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0855703633012155</c:v>
+                  <c:v>3.7712361663282534</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2558024617720998</c:v>
+                  <c:v>3.9283710065919308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.426034560242984</c:v>
+                  <c:v>4.0855058468556082</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.5962666587138683</c:v>
+                  <c:v>4.2426406871192857</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.7664987571847526</c:v>
+                  <c:v>4.3997755273829631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.936730855655636</c:v>
+                  <c:v>4.5569103676466396</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.1069629541265193</c:v>
+                  <c:v>4.714045207910317</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2771950525974036</c:v>
+                  <c:v>4.8711800481739944</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.4474271510682879</c:v>
+                  <c:v>5.0283148884376709</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6176592495391722</c:v>
+                  <c:v>5.1854497287013483</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.7878913480100564</c:v>
+                  <c:v>5.3425845689650266</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9581234464809389</c:v>
+                  <c:v>5.4997194092287023</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1283555449518232</c:v>
+                  <c:v>5.6568542494923797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.2985876434227075</c:v>
+                  <c:v>5.8139890897560571</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4688197418935927</c:v>
+                  <c:v>5.9711239300197354</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.639051840364476</c:v>
+                  <c:v>6.1282587702834119</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8092839388353603</c:v>
+                  <c:v>6.2853936105470902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.9795160373062437</c:v>
+                  <c:v>6.4425284508107667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.1497481357771271</c:v>
+                  <c:v>6.5996632910744433</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.3199802342480123</c:v>
+                  <c:v>6.7567981313381207</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.4902123327188956</c:v>
+                  <c:v>6.9139329716017981</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6604444311897799</c:v>
+                  <c:v>7.0710678118654755</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.8306765296606633</c:v>
+                  <c:v>7.228202652129152</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.0009086281315476</c:v>
+                  <c:v>7.3853374923928294</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.171140726602431</c:v>
+                  <c:v>7.5424723326565069</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.3413728250733143</c:v>
+                  <c:v>7.6996071729201834</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.5116049235441995</c:v>
+                  <c:v>7.8567420131838617</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.6818370220150847</c:v>
+                  <c:v>8.01387685344754</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.8520691204859681</c:v>
+                  <c:v>8.1710116937112165</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.0223012189568532</c:v>
+                  <c:v>8.3281465339748948</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.1925333174277366</c:v>
+                  <c:v>8.4852813742385713</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.3627654158986218</c:v>
+                  <c:v>8.6424162145022496</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5329975143695052</c:v>
+                  <c:v>8.7995510547659261</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.7032296128403868</c:v>
+                  <c:v>8.9566858950296009</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8734617113112719</c:v>
+                  <c:v>9.1138207352932792</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.043693809782155</c:v>
+                  <c:v>9.2709555755569575</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.213925908253039</c:v>
+                  <c:v>9.428090415820634</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.384158006723924</c:v>
+                  <c:v>9.5852252560843105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.554390105194807</c:v>
+                  <c:v>9.7423600963479888</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.724622203665692</c:v>
+                  <c:v>9.8994949366116654</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.894854302136576</c:v>
+                  <c:v>10.056629776875342</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.065086400607461</c:v>
+                  <c:v>10.21376461713902</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.235318499078344</c:v>
+                  <c:v>10.370899457402697</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.405550597549228</c:v>
+                  <c:v>10.528034297666375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.575782696020113</c:v>
+                  <c:v>10.685169137930053</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.746014794490995</c:v>
+                  <c:v>10.842303978193728</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11.916246892961878</c:v>
+                  <c:v>10.999438818457405</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12.086478991432763</c:v>
+                  <c:v>11.156573658721083</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.256711089903646</c:v>
+                  <c:v>11.313708498984759</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.426943188374532</c:v>
+                  <c:v>11.470843339248438</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12.597175286845415</c:v>
+                  <c:v>11.627978179512114</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.767407385316298</c:v>
+                  <c:v>11.785113019775791</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.937639483787185</c:v>
+                  <c:v>11.942247860039471</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.107871582258069</c:v>
+                  <c:v>12.099382700303147</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.278103680728952</c:v>
+                  <c:v>12.256517540566824</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.448335779199837</c:v>
+                  <c:v>12.413652380830502</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.618567877670721</c:v>
+                  <c:v>12.57078722109418</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.788799976141604</c:v>
+                  <c:v>12.727922061357857</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.959032074612487</c:v>
+                  <c:v>12.885056901621533</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>14.129264173083371</c:v>
+                  <c:v>13.04219174188521</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14.299496271554254</c:v>
+                  <c:v>13.199326582148887</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14.469728370025141</c:v>
+                  <c:v>13.356461422412565</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14.639960468496025</c:v>
+                  <c:v>13.513596262676241</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>14.810192566966908</c:v>
+                  <c:v>13.67073110293992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.980424665437791</c:v>
+                  <c:v>13.827865943203596</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.150656763908676</c:v>
+                  <c:v>13.985000783467274</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.32088886237956</c:v>
+                  <c:v>14.142135623730951</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.491120960850443</c:v>
+                  <c:v>14.299270463994628</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.661353059321327</c:v>
+                  <c:v>14.456405304258304</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.831585157792214</c:v>
+                  <c:v>14.613540144521984</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.001817256263095</c:v>
+                  <c:v>14.770674984785659</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>16.172049354733979</c:v>
+                  <c:v>14.927809825049337</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.342281453204862</c:v>
+                  <c:v>15.084944665313014</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.512513551675745</c:v>
+                  <c:v>15.24207950557669</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>16.682745650146629</c:v>
+                  <c:v>15.399214345840367</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>16.852977748617516</c:v>
+                  <c:v>15.556349186104047</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>17.023209847088399</c:v>
+                  <c:v>15.713484026367723</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>17.193441945559282</c:v>
+                  <c:v>15.8706188666314</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>17.363674044030169</c:v>
+                  <c:v>16.02775370689508</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>17.533906142501053</c:v>
+                  <c:v>16.184888547158756</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>17.704138240971936</c:v>
+                  <c:v>16.342023387422433</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>17.874370339442819</c:v>
+                  <c:v>16.49915822768611</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>18.044602437913706</c:v>
+                  <c:v>16.65629306794979</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>18.21483453638459</c:v>
+                  <c:v>16.813427908213466</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>18.385066634855473</c:v>
+                  <c:v>16.970562748477143</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.555298733326357</c:v>
+                  <c:v>17.127697588740819</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.725530831797244</c:v>
+                  <c:v>17.284832429004499</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18.895762930268127</c:v>
+                  <c:v>17.441967269268176</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>19.06599502873901</c:v>
+                  <c:v>17.599102109531852</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19.23622712720989</c:v>
+                  <c:v>17.756236949795525</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19.406459225680774</c:v>
+                  <c:v>17.913371790059202</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>19.57669132415166</c:v>
+                  <c:v>18.070506630322882</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>19.746923422622544</c:v>
+                  <c:v>18.227641470586558</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>19.917155521093427</c:v>
+                  <c:v>18.384776310850235</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>20.087387619564311</c:v>
+                  <c:v>18.541911151113915</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>20.257619718035194</c:v>
+                  <c:v>18.699045991377591</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>20.427851816506077</c:v>
+                  <c:v>18.856180831641268</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>20.598083914976961</c:v>
+                  <c:v>19.013315671904945</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>20.768316013447848</c:v>
+                  <c:v>19.170450512168621</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>20.938548111918731</c:v>
+                  <c:v>19.327585352432301</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>21.108780210389614</c:v>
+                  <c:v>19.484720192695978</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>21.279012308860501</c:v>
+                  <c:v>19.641855032959654</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>21.449244407331385</c:v>
+                  <c:v>19.798989873223331</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>21.619476505802268</c:v>
+                  <c:v>19.956124713487007</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>21.789708604273152</c:v>
+                  <c:v>20.113259553750684</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>21.959940702744039</c:v>
+                  <c:v>20.270394394014364</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22.130172801214922</c:v>
+                  <c:v>20.42752923427804</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>22.300404899685805</c:v>
+                  <c:v>20.584664074541717</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>22.470636998156689</c:v>
+                  <c:v>20.741798914805393</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>22.640869096627572</c:v>
+                  <c:v>20.898933755069073</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>22.811101195098455</c:v>
+                  <c:v>21.05606859533275</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>22.981333293569339</c:v>
+                  <c:v>21.213203435596427</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>23.151565392040226</c:v>
+                  <c:v>21.370338275860107</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>23.321797490511109</c:v>
+                  <c:v>21.527473116123783</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>23.492029588981989</c:v>
+                  <c:v>21.684607956387456</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>23.662261687452872</c:v>
+                  <c:v>21.841742796651133</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>23.832493785923756</c:v>
+                  <c:v>21.998877636914809</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>24.002725884394643</c:v>
+                  <c:v>22.156012477178489</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>24.172957982865526</c:v>
+                  <c:v>22.313147317442166</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>24.343190081336409</c:v>
+                  <c:v>22.470282157705842</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>24.513422179807293</c:v>
+                  <c:v>22.627416997969519</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>24.68365427827818</c:v>
+                  <c:v>22.784551838233199</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>24.853886376749063</c:v>
+                  <c:v>22.941686678496875</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>25.024118475219947</c:v>
+                  <c:v>23.098821518760552</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>25.19435057369083</c:v>
+                  <c:v>23.255956359024228</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>25.364582672161713</c:v>
+                  <c:v>23.413091199287905</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>25.534814770632597</c:v>
+                  <c:v>23.570226039551581</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>25.705046869103487</c:v>
+                  <c:v>23.727360879815265</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>25.875278967574371</c:v>
+                  <c:v>23.884495720078942</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>26.045511066045254</c:v>
+                  <c:v>24.041630560342618</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>26.215743164516137</c:v>
+                  <c:v>24.198765400606295</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>26.385975262987021</c:v>
+                  <c:v>24.355900240869971</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>26.556207361457904</c:v>
+                  <c:v>24.513035081133648</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>26.726439459928788</c:v>
+                  <c:v>24.670169921397324</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>26.896671558399674</c:v>
+                  <c:v>24.827304761661004</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>27.066903656870558</c:v>
+                  <c:v>24.984439601924681</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>27.237135755341441</c:v>
+                  <c:v>25.141574442188361</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>27.407367853812325</c:v>
+                  <c:v>25.298709282452037</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>27.577599952283208</c:v>
+                  <c:v>25.455844122715714</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>27.747832050754091</c:v>
+                  <c:v>25.61297896297939</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>27.918064149224975</c:v>
+                  <c:v>25.770113803243067</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>28.088296247695858</c:v>
+                  <c:v>25.927248643506744</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>28.258528346166742</c:v>
+                  <c:v>26.08438348377042</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>28.428760444637625</c:v>
+                  <c:v>26.241518324034097</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>28.598992543108508</c:v>
+                  <c:v>26.398653164297773</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>28.769224641579392</c:v>
+                  <c:v>26.55578800456145</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>28.939456740050282</c:v>
+                  <c:v>26.71292284482513</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29.109688838521166</c:v>
+                  <c:v>26.870057685088806</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>29.279920936992049</c:v>
+                  <c:v>27.027192525352483</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>29.450153035462932</c:v>
+                  <c:v>27.184327365616163</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>29.620385133933816</c:v>
+                  <c:v>27.341462205879839</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>29.790617232404699</c:v>
+                  <c:v>27.498597046143516</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>29.960849330875583</c:v>
+                  <c:v>27.655731886407192</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>30.131081429346469</c:v>
+                  <c:v>27.812866726670872</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>30.301313527817353</c:v>
+                  <c:v>27.970001566934549</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>30.471545626288236</c:v>
+                  <c:v>28.127136407198225</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>30.64177772475912</c:v>
+                  <c:v>28.284271247461902</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>30.812009823230003</c:v>
+                  <c:v>28.441406087725579</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>30.982241921700886</c:v>
+                  <c:v>28.598540927989255</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>31.15247402017177</c:v>
+                  <c:v>28.755675768252932</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>31.322706118642653</c:v>
+                  <c:v>28.912810608516608</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>31.492938217113544</c:v>
+                  <c:v>29.069945448780292</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>31.663170315584427</c:v>
+                  <c:v>29.227080289043968</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>31.83340241405531</c:v>
+                  <c:v>29.384215129307645</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>32.00363451252619</c:v>
+                  <c:v>29.541349969571318</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>32.173866610997074</c:v>
+                  <c:v>29.698484809834994</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>32.344098709467957</c:v>
+                  <c:v>29.855619650098674</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>32.51433080793884</c:v>
+                  <c:v>30.012754490362351</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>32.684562906409724</c:v>
+                  <c:v>30.169889330626027</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>32.854795004880607</c:v>
+                  <c:v>30.327024170889704</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>33.025027103351491</c:v>
+                  <c:v>30.48415901115338</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>33.195259201822374</c:v>
+                  <c:v>30.641293851417057</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>33.365491300293257</c:v>
+                  <c:v>30.798428691680733</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>33.535723398764148</c:v>
+                  <c:v>30.955563531944417</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>33.705955497235031</c:v>
+                  <c:v>31.112698372208094</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>33.876187595705915</c:v>
+                  <c:v>31.26983321247177</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>34.046419694176798</c:v>
+                  <c:v>31.426968052735447</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>34.216651792647674</c:v>
+                  <c:v>31.58410289299912</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>34.386883891118565</c:v>
+                  <c:v>31.7412377332628</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>34.557115989589448</c:v>
+                  <c:v>31.898372573526476</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>34.727348088060339</c:v>
+                  <c:v>32.05550741379016</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>34.897580186531215</c:v>
+                  <c:v>32.212642254053833</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>35.067812285002105</c:v>
+                  <c:v>32.369777094317513</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>35.238044383472982</c:v>
+                  <c:v>32.526911934581186</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>35.408276481943872</c:v>
+                  <c:v>32.684046774844866</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>35.578508580414756</c:v>
+                  <c:v>32.841181615108539</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>35.748740678885639</c:v>
+                  <c:v>32.998316455372219</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>35.918972777356522</c:v>
+                  <c:v>33.155451295635892</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>36.089204875827413</c:v>
+                  <c:v>33.312586135899579</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>36.259436974298289</c:v>
+                  <c:v>33.469720976163245</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>36.42966907276918</c:v>
+                  <c:v>33.626855816426932</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>36.599901171240056</c:v>
+                  <c:v>33.783990656690605</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>36.770133269710946</c:v>
+                  <c:v>33.941125496954285</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>36.94036536818183</c:v>
+                  <c:v>34.098260337217958</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>37.110597466652713</c:v>
+                  <c:v>34.255395177481638</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>37.280829565123597</c:v>
+                  <c:v>34.412530017745311</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>37.451061663594487</c:v>
+                  <c:v>34.569664858008998</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>37.621293762065363</c:v>
+                  <c:v>34.726799698272664</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>37.791525860536254</c:v>
+                  <c:v>34.883934538536352</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>37.96175795900713</c:v>
+                  <c:v>35.041069378800017</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>38.131990057478021</c:v>
+                  <c:v>35.198204219063705</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>38.302222155948904</c:v>
+                  <c:v>35.355339059327378</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>38.47245425441978</c:v>
+                  <c:v>35.51247389959105</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>38.642686352890671</c:v>
+                  <c:v>35.669608739854731</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>38.812918451361547</c:v>
+                  <c:v>35.826743580118404</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>38.983150549832438</c:v>
+                  <c:v>35.983878420382084</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>39.153382648303321</c:v>
+                  <c:v>36.141013260645764</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>39.323614746774204</c:v>
+                  <c:v>36.298148100909444</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>39.493846845245088</c:v>
+                  <c:v>36.455282941173117</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>39.664078943715971</c:v>
+                  <c:v>36.612417781436797</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>39.834311042186854</c:v>
+                  <c:v>36.76955262170047</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>40.004543140657738</c:v>
+                  <c:v>36.92668746196415</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>40.174775239128621</c:v>
+                  <c:v>37.08382230222783</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>40.345007337599505</c:v>
+                  <c:v>37.240957142491503</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>40.515239436070388</c:v>
+                  <c:v>37.398091982755183</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>40.685471534541279</c:v>
+                  <c:v>37.555226823018863</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>40.855703633012155</c:v>
+                  <c:v>37.712361663282536</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>41.025935731483045</c:v>
+                  <c:v>37.869496503546216</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>41.196167829953922</c:v>
+                  <c:v>38.026631343809889</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>41.366399928424812</c:v>
+                  <c:v>38.183766184073569</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>41.536632026895695</c:v>
+                  <c:v>38.340901024337242</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>41.706864125366586</c:v>
+                  <c:v>38.498035864600929</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>41.877096223837462</c:v>
+                  <c:v>38.655170704864602</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>42.047328322308353</c:v>
+                  <c:v>38.812305545128282</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>42.217560420779229</c:v>
+                  <c:v>38.969440385391955</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>42.387792519250119</c:v>
+                  <c:v>39.126575225655635</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>42.558024617721003</c:v>
+                  <c:v>39.283710065919308</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>42.728256716191879</c:v>
+                  <c:v>39.440844906182981</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>42.89848881466277</c:v>
+                  <c:v>39.597979746446661</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>43.068720913133646</c:v>
+                  <c:v>39.755114586710334</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>43.238953011604536</c:v>
+                  <c:v>39.912249426974014</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>43.409185110075413</c:v>
+                  <c:v>40.069384267237687</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>43.579417208546303</c:v>
+                  <c:v>40.226519107501368</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>43.749649307017187</c:v>
+                  <c:v>40.383653947765048</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>43.919881405488077</c:v>
+                  <c:v>40.540788788028728</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>44.090113503958953</c:v>
+                  <c:v>40.697923628292401</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>44.260345602429844</c:v>
+                  <c:v>40.855058468556081</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>44.43057770090072</c:v>
+                  <c:v>41.012193308819754</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>44.600809799371611</c:v>
+                  <c:v>41.169328149083434</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>44.771041897842494</c:v>
+                  <c:v>41.326462989347114</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>44.941273996313377</c:v>
+                  <c:v>41.483597829610787</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>45.111506094784261</c:v>
+                  <c:v>41.640732669874467</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>45.281738193255144</c:v>
+                  <c:v>41.797867510138147</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>45.451970291726028</c:v>
+                  <c:v>41.95500235040182</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>45.622202390196911</c:v>
+                  <c:v>42.1121371906655</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>45.792434488667794</c:v>
+                  <c:v>42.269272030929173</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>45.962666587138678</c:v>
+                  <c:v>42.426406871192853</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>46.132898685609561</c:v>
+                  <c:v>42.583541711456533</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>46.303130784080452</c:v>
+                  <c:v>42.740676551720213</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>46.473362882551328</c:v>
+                  <c:v>42.897811391983886</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>46.643594981022218</c:v>
+                  <c:v>43.054946232247566</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>46.813827079493095</c:v>
+                  <c:v>43.212081072511239</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>46.984059177963978</c:v>
+                  <c:v>43.369215912774912</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>47.154291276434869</c:v>
+                  <c:v>43.526350753038599</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>47.324523374905745</c:v>
+                  <c:v>43.683485593302265</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>47.494755473376635</c:v>
+                  <c:v>43.840620433565952</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>47.664987571847512</c:v>
+                  <c:v>43.997755273829618</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>47.835219670318402</c:v>
+                  <c:v>44.154890114093305</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>48.005451768789285</c:v>
+                  <c:v>44.312024954356978</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>48.175683867260169</c:v>
+                  <c:v>44.469159794620658</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>48.345915965731052</c:v>
+                  <c:v>44.626294634884331</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48.516148064201943</c:v>
+                  <c:v>44.783429475148012</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>48.686380162672819</c:v>
+                  <c:v>44.940564315411685</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>48.856612261143709</c:v>
+                  <c:v>45.097699155675365</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>49.026844359614586</c:v>
+                  <c:v>45.254833995939038</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>49.197076458085483</c:v>
+                  <c:v>45.411968836202725</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>49.36730855655636</c:v>
+                  <c:v>45.569103676466398</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>49.53754065502725</c:v>
+                  <c:v>45.726238516730078</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>49.707772753498126</c:v>
+                  <c:v>45.883373356993751</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>49.878004851969017</c:v>
+                  <c:v>46.040508197257431</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>50.048236950439893</c:v>
+                  <c:v>46.197643037521104</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>50.218469048910784</c:v>
+                  <c:v>46.354777877784784</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>50.38870114738166</c:v>
+                  <c:v>46.511912718048457</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>50.55893324585255</c:v>
+                  <c:v>46.669047558312137</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>50.729165344323427</c:v>
+                  <c:v>46.82618239857581</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>50.899397442794317</c:v>
+                  <c:v>46.98331723883949</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>51.069629541265193</c:v>
+                  <c:v>47.140452079103163</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>51.239861639736084</c:v>
+                  <c:v>47.297586919366843</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>51.410093738206974</c:v>
+                  <c:v>47.45472175963053</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>51.580325836677851</c:v>
+                  <c:v>47.611856599894203</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>51.750557935148741</c:v>
+                  <c:v>47.768991440157883</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>51.920790033619618</c:v>
+                  <c:v>47.926126280421556</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>52.091022132090508</c:v>
+                  <c:v>48.083261120685236</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>52.261254230561384</c:v>
+                  <c:v>48.240395960948909</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>52.431486329032275</c:v>
+                  <c:v>48.397530801212589</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>52.601718427503151</c:v>
+                  <c:v>48.554665641476262</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>52.771950525974042</c:v>
+                  <c:v>48.711800481739942</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>52.942182624444918</c:v>
+                  <c:v>48.868935322003615</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>53.112414722915808</c:v>
+                  <c:v>49.026070162267295</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>53.282646821386692</c:v>
+                  <c:v>49.183205002530975</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>53.452878919857575</c:v>
+                  <c:v>49.340339842794648</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>53.623111018328458</c:v>
+                  <c:v>49.497474683058329</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>53.793343116799349</c:v>
+                  <c:v>49.654609523322009</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>53.963575215270225</c:v>
+                  <c:v>49.811744363585682</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>54.133807313741116</c:v>
+                  <c:v>49.968879203849362</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>54.304039412211992</c:v>
+                  <c:v>50.126014044113035</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>54.474271510682883</c:v>
+                  <c:v>50.283148884376722</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>54.644503609153759</c:v>
+                  <c:v>50.440283724640388</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>54.814735707624649</c:v>
+                  <c:v>50.597418564904075</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>54.984967806095526</c:v>
+                  <c:v>50.754553405167741</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>55.155199904566416</c:v>
+                  <c:v>50.911688245431428</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>55.325432003037292</c:v>
+                  <c:v>51.068823085695094</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>55.495664101508183</c:v>
+                  <c:v>51.225957925958781</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>55.665896199979073</c:v>
+                  <c:v>51.383092766222461</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>55.83612829844995</c:v>
+                  <c:v>51.540227606486134</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>56.00636039692084</c:v>
+                  <c:v>51.697362446749814</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>56.176592495391716</c:v>
+                  <c:v>51.854497287013487</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>56.346824593862607</c:v>
+                  <c:v>52.011632127277167</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>56.517056692333483</c:v>
+                  <c:v>52.16876696754084</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>56.687288790804374</c:v>
+                  <c:v>52.32590180780452</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>56.85752088927525</c:v>
+                  <c:v>52.483036648068193</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>57.02775298774614</c:v>
+                  <c:v>52.640171488331873</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>57.197985086217017</c:v>
+                  <c:v>52.797306328595546</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>57.368217184687907</c:v>
+                  <c:v>52.954441168859226</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>57.538449283158783</c:v>
+                  <c:v>53.111576009122899</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>57.708681381629674</c:v>
+                  <c:v>53.268710849386579</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>57.878913480100564</c:v>
+                  <c:v>53.425845689650259</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>58.049145578571441</c:v>
+                  <c:v>53.582980529913932</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>58.219377677042331</c:v>
+                  <c:v>53.740115370177612</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>58.389609775513215</c:v>
+                  <c:v>53.8972502104413</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>58.559841873984098</c:v>
+                  <c:v>54.054385050704965</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>58.730073972454981</c:v>
+                  <c:v>54.211519890968653</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>58.900306070925865</c:v>
+                  <c:v>54.368654731232326</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>59.070538169396748</c:v>
+                  <c:v>54.525789571496006</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>59.240770267867632</c:v>
+                  <c:v>54.682924411759679</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>59.411002366338515</c:v>
+                  <c:v>54.840059252023359</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>59.581234464809398</c:v>
+                  <c:v>54.997194092287032</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>59.751466563280275</c:v>
+                  <c:v>55.154328932550698</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>59.921698661751165</c:v>
+                  <c:v>55.311463772814385</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>60.091930760222048</c:v>
+                  <c:v>55.468598613078065</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>60.262162858692939</c:v>
+                  <c:v>55.625733453341745</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>60.432394957163815</c:v>
+                  <c:v>55.782868293605418</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>60.602627055634706</c:v>
+                  <c:v>55.940003133869098</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>60.772859154105582</c:v>
+                  <c:v>56.097137974132771</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>60.943091252576473</c:v>
+                  <c:v>56.254272814396451</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>61.113323351047349</c:v>
+                  <c:v>56.411407654660124</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>61.283555449518239</c:v>
+                  <c:v>56.568542494923804</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>61.453787547989116</c:v>
+                  <c:v>56.725677335187477</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>61.624019646460006</c:v>
+                  <c:v>56.882812175451157</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>61.794251744930882</c:v>
+                  <c:v>57.03994701571483</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>61.964483843401773</c:v>
+                  <c:v>57.19708185597851</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>62.134715941872649</c:v>
+                  <c:v>57.354216696242183</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>62.30494804034354</c:v>
+                  <c:v>57.511351536505863</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>62.47518013881443</c:v>
+                  <c:v>57.66848637676955</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>62.645412237285306</c:v>
+                  <c:v>57.825621217033216</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>62.815644335756197</c:v>
+                  <c:v>57.982756057296903</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>62.985876434227087</c:v>
+                  <c:v>58.139890897560583</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>63.156108532697964</c:v>
+                  <c:v>58.297025737824256</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>63.326340631168854</c:v>
+                  <c:v>58.454160578087937</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>63.49657272963973</c:v>
+                  <c:v>58.611295418351609</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>63.666804828110621</c:v>
+                  <c:v>58.76843025861529</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>63.837036926581497</c:v>
+                  <c:v>58.925565098878963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,1129 +1475,1129 @@
                   <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9923511910414533</c:v>
+                  <c:v>2.0066443402636773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1337213820829066</c:v>
+                  <c:v>2.1623076805273547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2741105731243594</c:v>
+                  <c:v>2.3169900207910317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4135187641658127</c:v>
+                  <c:v>2.4706913610547088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5519459552072661</c:v>
+                  <c:v>2.6234117013183864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6893921462487191</c:v>
+                  <c:v>2.7751510415820633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8258573372901723</c:v>
+                  <c:v>2.9259093818457407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9613415283316256</c:v>
+                  <c:v>3.0756867221094182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.095844719373078</c:v>
+                  <c:v>3.2244830623730945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2293669104145319</c:v>
+                  <c:v>3.3722984026367722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3619081014559846</c:v>
+                  <c:v>3.5191327429004495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4934682924974383</c:v>
+                  <c:v>3.664986083164127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6240474835388912</c:v>
+                  <c:v>3.8098584234278037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7536456745803446</c:v>
+                  <c:v>3.9537497636914818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8822628656217977</c:v>
+                  <c:v>4.0966601039551582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.00989905666325</c:v>
+                  <c:v>4.2385894442188352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1365542477047041</c:v>
+                  <c:v>4.3795377844825127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.2622284387461562</c:v>
+                  <c:v>4.519505124746189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3869216297876106</c:v>
+                  <c:v>4.6584914650098677</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5106338208290628</c:v>
+                  <c:v>4.7964968052735442</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6333650118705165</c:v>
+                  <c:v>4.9335211455372212</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.755115202911969</c:v>
+                  <c:v>5.0695644858008979</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.875884393953422</c:v>
+                  <c:v>5.2046268260645761</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9956725849948755</c:v>
+                  <c:v>5.338708166328253</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1144797760363296</c:v>
+                  <c:v>5.4718085065919304</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2323059670777816</c:v>
+                  <c:v>5.6039278468556066</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.3491511581192359</c:v>
+                  <c:v>5.7350661871192852</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4650153491606881</c:v>
+                  <c:v>5.8652235273829616</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5798985402021408</c:v>
+                  <c:v>5.9943998676466386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.693800731243595</c:v>
+                  <c:v>6.122595207910317</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.8067219222850488</c:v>
+                  <c:v>6.2498095481739933</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9186621133265014</c:v>
+                  <c:v>6.3760428884376719</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.0296213043679554</c:v>
+                  <c:v>6.5012952287013483</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1395994954094073</c:v>
+                  <c:v>6.6255665689650263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.2485966864508597</c:v>
+                  <c:v>6.7488569092287012</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.3566128774923136</c:v>
+                  <c:v>6.8711662494923793</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.4636480685337663</c:v>
+                  <c:v>6.9924945897560562</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.5697022595752195</c:v>
+                  <c:v>7.1128419300197336</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6747754506166741</c:v>
+                  <c:v>7.2322082702834107</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.7788676416581257</c:v>
+                  <c:v>7.3505936105470884</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.8819788326995806</c:v>
+                  <c:v>7.4679979508107657</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.9841090237410324</c:v>
+                  <c:v>7.5844212910744417</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.0852582147824865</c:v>
+                  <c:v>7.6998636313381201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.1854264058239385</c:v>
+                  <c:v>7.8143249716017964</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.2846135968653929</c:v>
+                  <c:v>7.927805311865475</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.3828197879068451</c:v>
+                  <c:v>8.0403046521291515</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.4800449789482979</c:v>
+                  <c:v>8.1518229923928285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.5762891699897512</c:v>
+                  <c:v>8.262360332656506</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.6715523610312042</c:v>
+                  <c:v>8.3719166729201824</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.7658345520726577</c:v>
+                  <c:v>8.480492013183861</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.8591357431141118</c:v>
+                  <c:v>8.5880863534475367</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.9514559341555646</c:v>
+                  <c:v>8.6946996937112146</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.0427951251970171</c:v>
+                  <c:v>8.8003320339748932</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.1331533162384702</c:v>
+                  <c:v>8.9049833742385687</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.2225305072799237</c:v>
+                  <c:v>9.0086537145022465</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.3109266983213761</c:v>
+                  <c:v>9.1113430547659231</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.398341889362829</c:v>
+                  <c:v>9.2130513950295985</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.4847760804042824</c:v>
+                  <c:v>9.3137787352932779</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.5702292714457364</c:v>
+                  <c:v>9.4135250755569562</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.6547014624871892</c:v>
+                  <c:v>9.5122904158206314</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.7381926535286425</c:v>
+                  <c:v>9.6100747560843107</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8207028445700963</c:v>
+                  <c:v>9.706878096347987</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.9022320356115472</c:v>
+                  <c:v>9.8027004366116621</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.9827802266530021</c:v>
+                  <c:v>9.8975417768753413</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.0623474176944558</c:v>
+                  <c:v>9.9914021171390175</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.1409336087359083</c:v>
+                  <c:v>10.084281457402694</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.2185387997773631</c:v>
+                  <c:v>10.176179797666371</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.2951629908188149</c:v>
+                  <c:v>10.267097137930051</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3708061818602673</c:v>
+                  <c:v>10.357033478193726</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.4454683729017201</c:v>
+                  <c:v>10.445988818457403</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.5191495639431736</c:v>
+                  <c:v>10.533963158721081</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.5918497549846258</c:v>
+                  <c:v>10.620956498984757</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.6635689460260803</c:v>
+                  <c:v>10.706968839248436</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.7343071370675318</c:v>
+                  <c:v>10.792000179512112</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.8040643281089856</c:v>
+                  <c:v>10.876050519775788</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.87284051915044</c:v>
+                  <c:v>10.959119860039468</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.9406357101918914</c:v>
+                  <c:v>11.041208200303146</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.007449901233347</c:v>
+                  <c:v>11.122315540566822</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.073283092274799</c:v>
+                  <c:v>11.202441880830499</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.138135283316252</c:v>
+                  <c:v>11.281587221094176</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.202006474357706</c:v>
+                  <c:v>11.359751561357854</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.26489666539916</c:v>
+                  <c:v>11.436934901621532</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.326805856440611</c:v>
+                  <c:v>11.513137241885207</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.387734047482065</c:v>
+                  <c:v>11.588358582148885</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.44768123852352</c:v>
+                  <c:v>11.662598922412563</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.506647429564971</c:v>
+                  <c:v>11.735858262676238</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.564632620606424</c:v>
+                  <c:v>11.808136602939916</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.621636811647877</c:v>
+                  <c:v>11.879433943203592</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.677660002689333</c:v>
+                  <c:v>11.949750283467273</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.732702193730784</c:v>
+                  <c:v>12.019085623730948</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.786763384772236</c:v>
+                  <c:v>12.087439963994624</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.839843575813688</c:v>
+                  <c:v>12.154813304258301</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.891942766855145</c:v>
+                  <c:v>12.221205644521982</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.943060957896595</c:v>
+                  <c:v>12.286616984785656</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.993198148938049</c:v>
+                  <c:v>12.351047325049336</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>11.042354339979504</c:v>
+                  <c:v>12.414496665313012</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11.090529531020955</c:v>
+                  <c:v>12.476965005576687</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>11.137723722062407</c:v>
+                  <c:v>12.538452345840366</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>11.183936913103862</c:v>
+                  <c:v>12.598958686104044</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.229169104145317</c:v>
+                  <c:v>12.65848402636772</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.273420295186767</c:v>
+                  <c:v>12.717028366631396</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.316690486228222</c:v>
+                  <c:v>12.774591706895077</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>11.358979677269677</c:v>
+                  <c:v>12.831174047158754</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11.40028786831113</c:v>
+                  <c:v>12.88677538742243</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11.440615059352581</c:v>
+                  <c:v>12.941395727686107</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11.479961250394037</c:v>
+                  <c:v>12.995035067949786</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11.518326441435489</c:v>
+                  <c:v>13.047693408213464</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11.555710632476941</c:v>
+                  <c:v>13.099370748477138</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>11.592113823518392</c:v>
+                  <c:v>13.150067088740816</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11.627536014559851</c:v>
+                  <c:v>13.199782429004497</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>11.6619772056013</c:v>
+                  <c:v>13.248516769268171</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.695437396642756</c:v>
+                  <c:v>13.29627010953185</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.727916587684208</c:v>
+                  <c:v>13.343042449795524</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>11.759414778725663</c:v>
+                  <c:v>13.388833790059202</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>11.789931969767116</c:v>
+                  <c:v>13.433644130322881</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>11.819468160808565</c:v>
+                  <c:v>13.477473470586556</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>11.848023351850021</c:v>
+                  <c:v>13.520321810850234</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.875597542891473</c:v>
+                  <c:v>13.562189151113913</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>11.902190733932928</c:v>
+                  <c:v>13.60307549137759</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>11.927802924974381</c:v>
+                  <c:v>13.642980831641266</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>11.952434116015832</c:v>
+                  <c:v>13.681905171904942</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>11.976084307057286</c:v>
+                  <c:v>13.719848512168623</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>11.99875349809874</c:v>
+                  <c:v>13.756810852432299</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12.020441689140194</c:v>
+                  <c:v>13.792792192695975</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>12.041148880181648</c:v>
+                  <c:v>13.827792532959652</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>12.060875071223098</c:v>
+                  <c:v>13.861811873223328</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>12.079620262264552</c:v>
+                  <c:v>13.894850213487008</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>12.097384453306006</c:v>
+                  <c:v>13.926907553750684</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>12.114167644347459</c:v>
+                  <c:v>13.95798389401436</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>12.129969835388913</c:v>
+                  <c:v>13.988079234278036</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>12.144791026430365</c:v>
+                  <c:v>14.017193574541714</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.158631217471818</c:v>
+                  <c:v>14.04532691480539</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.171490408513272</c:v>
+                  <c:v>14.072479255069069</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.183368599554726</c:v>
+                  <c:v>14.098650595332746</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.194265790596177</c:v>
+                  <c:v>14.123840935596423</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.20418198163763</c:v>
+                  <c:v>14.148050275860102</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.213117172679084</c:v>
+                  <c:v>14.171278616123779</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>12.221071363720538</c:v>
+                  <c:v>14.193525956387456</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12.228044554761992</c:v>
+                  <c:v>14.214792296651131</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>12.234036745803442</c:v>
+                  <c:v>14.235077636914808</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.2390479368449</c:v>
+                  <c:v>14.254381977178488</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12.243078127886351</c:v>
+                  <c:v>14.272705317442165</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>12.246127318927805</c:v>
+                  <c:v>14.290047657705841</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>12.248195509969253</c:v>
+                  <c:v>14.306408997969516</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>12.249282701010712</c:v>
+                  <c:v>14.321789338233197</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>12.249388892052163</c:v>
+                  <c:v>14.336188678496875</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>12.248514083093616</c:v>
+                  <c:v>14.349607018760549</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>12.246658274135067</c:v>
+                  <c:v>14.362044359024226</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>12.24382146517652</c:v>
+                  <c:v>14.373500699287902</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>12.240003656217976</c:v>
+                  <c:v>14.38397603955158</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>12.235204847259432</c:v>
+                  <c:v>14.393470379815263</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>12.229425038300882</c:v>
+                  <c:v>14.401983720078938</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>12.222664229342335</c:v>
+                  <c:v>14.409516060342614</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>12.214922420383786</c:v>
+                  <c:v>14.416067400606291</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>12.206199611425241</c:v>
+                  <c:v>14.421637740869969</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>12.196495802466695</c:v>
+                  <c:v>14.426227081133645</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>12.185810993508143</c:v>
+                  <c:v>14.429835421397319</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>12.174145184549602</c:v>
+                  <c:v>14.432462761661</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>12.161498375591057</c:v>
+                  <c:v>14.434109101924678</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>12.147870566632506</c:v>
+                  <c:v>14.434774442188353</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12.13326175767396</c:v>
+                  <c:v>14.43445878245203</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>12.117671948715413</c:v>
+                  <c:v>14.433162122715709</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>12.101101139756867</c:v>
+                  <c:v>14.430884462979389</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12.083549330798322</c:v>
+                  <c:v>14.427625803243066</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12.065016521839773</c:v>
+                  <c:v>14.423386143506743</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>12.045502712881225</c:v>
+                  <c:v>14.418165483770418</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>12.025007903922679</c:v>
+                  <c:v>14.411963824034094</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>12.003532094964132</c:v>
+                  <c:v>14.404781164297773</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>11.981075286005584</c:v>
+                  <c:v>14.396617504561448</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>11.957637477047042</c:v>
+                  <c:v>14.387472844825128</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>11.933218668088491</c:v>
+                  <c:v>14.377347185088803</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>11.907818859129947</c:v>
+                  <c:v>14.366240525352481</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>11.881438050171397</c:v>
+                  <c:v>14.354152865616157</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>11.85407624121285</c:v>
+                  <c:v>14.341084205879833</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>11.825733432254305</c:v>
+                  <c:v>14.32703454614351</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>11.796409623295753</c:v>
+                  <c:v>14.312003886407185</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>11.766104814337211</c:v>
+                  <c:v>14.295992226670869</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>11.734819005378666</c:v>
+                  <c:v>14.278999566934546</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>11.702552196420115</c:v>
+                  <c:v>14.261025907198221</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>11.669304387461571</c:v>
+                  <c:v>14.242071247461899</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>11.635075578503024</c:v>
+                  <c:v>14.222135587725575</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11.599865769544472</c:v>
+                  <c:v>14.201218927989249</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>11.563674960585928</c:v>
+                  <c:v>14.179321268252927</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11.526503151627377</c:v>
+                  <c:v>14.156442608516603</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>11.488350342668834</c:v>
+                  <c:v>14.132582948780286</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>11.449216533710292</c:v>
+                  <c:v>14.107742289043966</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>11.409101724751743</c:v>
+                  <c:v>14.081920629307639</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>11.368005915793194</c:v>
+                  <c:v>14.055117969571313</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>11.325929106834643</c:v>
+                  <c:v>14.027334309834988</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>11.282871297876103</c:v>
+                  <c:v>13.998569650098673</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>11.238832488917556</c:v>
+                  <c:v>13.968823990362349</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>11.193812679959009</c:v>
+                  <c:v>13.938097330626022</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>11.14781187100046</c:v>
+                  <c:v>13.906389670889702</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>11.100830062041915</c:v>
+                  <c:v>13.873701011153376</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>11.052867253083363</c:v>
+                  <c:v>13.840031351417053</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>11.003923444124819</c:v>
+                  <c:v>13.805380691680728</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>10.953998635166275</c:v>
+                  <c:v>13.769749031944407</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>10.903092826207725</c:v>
+                  <c:v>13.733136372208087</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>10.851206017249179</c:v>
+                  <c:v>13.695542712471767</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>10.798338208290634</c:v>
+                  <c:v>13.65696805273544</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>10.744489399332085</c:v>
+                  <c:v>13.617412392999118</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>10.689659590373537</c:v>
+                  <c:v>13.576875733262792</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>10.633848781414994</c:v>
+                  <c:v>13.535358073526474</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>10.577056972456443</c:v>
+                  <c:v>13.49285941379015</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>10.5192841634979</c:v>
+                  <c:v>13.44937975405383</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>10.460530354539355</c:v>
+                  <c:v>13.404919094317506</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>10.400795545580806</c:v>
+                  <c:v>13.359477434581184</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>10.340079736622258</c:v>
+                  <c:v>13.313054774844858</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>10.278382927663714</c:v>
+                  <c:v>13.265651115108543</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>10.215705118705159</c:v>
+                  <c:v>13.217266455372208</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>10.15204630974662</c:v>
+                  <c:v>13.167900795635894</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>10.08740650078807</c:v>
+                  <c:v>13.117554135899567</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>10.021785691829525</c:v>
+                  <c:v>13.066226476163248</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>9.9551838828709762</c:v>
+                  <c:v>13.013917816426925</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>9.8876010739124247</c:v>
+                  <c:v>12.9606281566906</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>9.8190372649538809</c:v>
+                  <c:v>12.906357496954275</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>9.7494924559953375</c:v>
+                  <c:v>12.851105837217958</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>9.6789666470367806</c:v>
+                  <c:v>12.794873177481627</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>9.6074598380782383</c:v>
+                  <c:v>12.73765951774531</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>9.5349720291196967</c:v>
+                  <c:v>12.679464858008988</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>9.4615032201611484</c:v>
+                  <c:v>12.620289198272665</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>9.3870534112025972</c:v>
+                  <c:v>12.56013253853634</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>9.31162260224405</c:v>
+                  <c:v>12.498994878800019</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>9.235210793285507</c:v>
+                  <c:v>12.436876219063695</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>9.1578179843269645</c:v>
+                  <c:v>12.373776559327371</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>9.0794441753684154</c:v>
+                  <c:v>12.309695899591048</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>9.0000893664098633</c:v>
+                  <c:v>12.244634239854722</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>8.919753557451326</c:v>
+                  <c:v>12.178591580118404</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>8.8384367484927751</c:v>
+                  <c:v>12.111567920382079</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>8.7561389395342317</c:v>
+                  <c:v>12.043563260645762</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>8.6728601305756818</c:v>
+                  <c:v>11.974577600909438</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>8.5886003216171325</c:v>
+                  <c:v>11.904610941173114</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>8.5033595126585872</c:v>
+                  <c:v>11.833663281436788</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>8.417137703700039</c:v>
+                  <c:v>11.761734621700466</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>8.3299348947414948</c:v>
+                  <c:v>11.688824961964141</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>8.2417510857829477</c:v>
+                  <c:v>11.614934302227827</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>8.1525862768243975</c:v>
+                  <c:v>11.540062642491495</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>8.062440467865855</c:v>
+                  <c:v>11.464209982755179</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>7.9713136589073024</c:v>
+                  <c:v>11.387376323018852</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>7.8792058499487609</c:v>
+                  <c:v>11.30956166328253</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>7.7861170409902094</c:v>
+                  <c:v>11.230766003546204</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>7.692047232031662</c:v>
+                  <c:v>11.150989343809883</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>7.5969964230731186</c:v>
+                  <c:v>11.070231684073558</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>7.5009646141145723</c:v>
+                  <c:v>10.988493024337245</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>7.4039518051560265</c:v>
+                  <c:v>10.905773364600918</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>7.3059579961974777</c:v>
+                  <c:v>10.822072704864595</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>7.2069831872389258</c:v>
+                  <c:v>10.73739104512827</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7.1070273782803852</c:v>
+                  <c:v>10.651728385391948</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7.0060905693218345</c:v>
+                  <c:v>10.565084725655623</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>6.9041727603632914</c:v>
+                  <c:v>10.477460065919299</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>6.8012739514047418</c:v>
+                  <c:v>10.388854406182976</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>6.6973941424461927</c:v>
+                  <c:v>10.299267746446652</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>6.5925333334876548</c:v>
+                  <c:v>10.208700086710333</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>6.4866915245291032</c:v>
+                  <c:v>10.117151426974015</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>6.3798687155705558</c:v>
+                  <c:v>10.024621767237686</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>6.2720649066120089</c:v>
+                  <c:v>9.9311111075013656</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>6.1632800976534696</c:v>
+                  <c:v>9.8366194477650453</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>6.0535142886949131</c:v>
+                  <c:v>9.7411467880287148</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>5.9427674797363679</c:v>
+                  <c:v>9.6446931282923956</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>5.8310396707778196</c:v>
+                  <c:v>9.5472584685560662</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>5.7183308618192754</c:v>
+                  <c:v>9.448842808819748</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>5.6046410528607282</c:v>
+                  <c:v>9.3494461490834269</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>5.4899702439021851</c:v>
+                  <c:v>9.2490684893471098</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>5.3743184349436319</c:v>
+                  <c:v>9.1477098296107755</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>5.2576856259850899</c:v>
+                  <c:v>9.0453701698744595</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>5.1400718170265378</c:v>
+                  <c:v>8.9420495101381334</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>5.0214770080679898</c:v>
+                  <c:v>8.8377478504018114</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>4.9019011991094459</c:v>
+                  <c:v>8.7324651906654864</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>4.781344390150899</c:v>
+                  <c:v>8.6262015309291655</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>4.659806581192349</c:v>
+                  <c:v>8.5189568711928416</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>4.5372877722338103</c:v>
+                  <c:v>8.4107312114565289</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>4.4137879632752544</c:v>
+                  <c:v>8.301524551720199</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>4.2893071543167167</c:v>
+                  <c:v>8.1913368919838803</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>4.1638453453581619</c:v>
+                  <c:v>8.0801682322475514</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>4.0374025363996111</c:v>
+                  <c:v>7.9680185725112267</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>3.9099787274410787</c:v>
+                  <c:v>7.8548879127749132</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>3.7815739184825361</c:v>
+                  <c:v>7.7407762530385966</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>3.6521881095239834</c:v>
+                  <c:v>7.6256835933022629</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>3.5218213005654349</c:v>
+                  <c:v>7.5096099335659474</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>3.3904734916068833</c:v>
+                  <c:v>7.3925552738296147</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>3.2581446826483358</c:v>
+                  <c:v>7.2745196140932933</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3.1248348736897995</c:v>
+                  <c:v>7.1555029543569759</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2.9905440647312389</c:v>
+                  <c:v>7.0355052946206484</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2.8552722557727037</c:v>
+                  <c:v>6.9145266348843322</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2.7190194468141584</c:v>
+                  <c:v>6.7925669751480058</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2.5817856378556101</c:v>
+                  <c:v>6.6696263154116835</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2.4435708288970588</c:v>
+                  <c:v>6.5457046556753582</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2.3043750199385045</c:v>
+                  <c:v>6.4208019959390299</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2.1641982109799613</c:v>
+                  <c:v>6.2949183362027128</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2.0230404020214223</c:v>
+                  <c:v>6.1680536764663927</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.8809015930628661</c:v>
+                  <c:v>6.0402080167300625</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.7377817841043282</c:v>
+                  <c:v>5.9113813569937506</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.5936809751457801</c:v>
+                  <c:v>5.7815736972574214</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.4485991661872291</c:v>
+                  <c:v>5.6507850375210964</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.3025363572286821</c:v>
+                  <c:v>5.5190153777847755</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.1554925482701321</c:v>
+                  <c:v>5.3862647180484515</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.0074677393115863</c:v>
+                  <c:v>5.2525330583121246</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.85846193035303742</c:v>
+                  <c:v>5.1178203985758017</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.70847512139448554</c:v>
+                  <c:v>4.9821267388394759</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.55750731243595197</c:v>
+                  <c:v>4.8454520791031612</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.40555850347740829</c:v>
+                  <c:v>4.7077964193668436</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.25262869451886161</c:v>
+                  <c:v>4.5691597596305229</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>9.8717885560311913E-2</c:v>
+                  <c:v>4.4295420998941921</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-5.6173923398240788E-2</c:v>
+                  <c:v>4.2889434401578725</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-0.21204673235678939</c:v>
+                  <c:v>4.14736378042155</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-0.3689005413153339</c:v>
+                  <c:v>4.0048031206852244</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-0.52673535027388141</c:v>
+                  <c:v>3.8612614609489029</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-0.68555115923243193</c:v>
+                  <c:v>3.7167388012125784</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-0.84534796819097124</c:v>
+                  <c:v>3.571235141476258</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-1.0061257771495207</c:v>
+                  <c:v>3.4247504817399346</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-1.1678845861080731</c:v>
+                  <c:v>3.2772848220036082</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-1.3306243950666143</c:v>
+                  <c:v>3.1288381622672858</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-1.4943452040251586</c:v>
+                  <c:v>2.9794105025309676</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-1.65904701298372</c:v>
+                  <c:v>2.8290018427946322</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-1.824729821942249</c:v>
+                  <c:v>2.6776121830583222</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-1.9913936309008022</c:v>
+                  <c:v>2.5252415233219949</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-2.1590384398593443</c:v>
+                  <c:v>2.3718898635856789</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-2.3276642488178894</c:v>
+                  <c:v>2.2175572038493527</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-2.4972710577764374</c:v>
+                  <c:v>2.0622435441130307</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-2.6678588667349956</c:v>
+                  <c:v>1.9059488843766985</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-2.8394276756935426</c:v>
+                  <c:v>1.7486732246403776</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-3.0119774846520855</c:v>
+                  <c:v>1.5904165649040536</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-3.1855082936106314</c:v>
+                  <c:v>1.4311789051677337</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-3.3600201025691803</c:v>
+                  <c:v>1.2709602454314108</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-3.5355129115277251</c:v>
+                  <c:v>1.109760585695085</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-3.7119867204862658</c:v>
+                  <c:v>0.94757992595877738</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-3.8894415294448166</c:v>
+                  <c:v>0.78441826622244548</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-4.0678773384033562</c:v>
+                  <c:v>0.62027560648613189</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-4.247294147361913</c:v>
+                  <c:v>0.45515194674980108</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-4.4276919563204515</c:v>
+                  <c:v>0.28904728701348859</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-4.6090707652790002</c:v>
+                  <c:v>0.12196162727715887</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-4.7914305742375518</c:v>
+                  <c:v>-4.610503245916675E-2</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-4.9747713831961065</c:v>
+                  <c:v>-0.21515269219549538</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-5.1590931921546428</c:v>
+                  <c:v>-0.3851813519318128</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-5.3443960011131963</c:v>
+                  <c:v>-0.55619101166814033</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>-5.5306798100717316</c:v>
+                  <c:v>-0.72818167140444956</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>-5.7179446190302841</c:v>
+                  <c:v>-0.90115333114078311</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>-5.9061904279888324</c:v>
+                  <c:v>-1.0751059908771055</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>-6.0954172369473909</c:v>
+                  <c:v>-1.2500396506134379</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>-6.2856250459059169</c:v>
+                  <c:v>-1.425954310349745</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>-6.4768138548644743</c:v>
+                  <c:v>-1.6028499700860763</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>-6.6689836638230204</c:v>
+                  <c:v>-1.7807266298223965</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>-6.8621344727815696</c:v>
+                  <c:v>-1.9595842895587268</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>-7.0562662817401076</c:v>
+                  <c:v>-2.1394229492950387</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>-7.2513790906986628</c:v>
+                  <c:v>-2.3202426090313608</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>-7.4474728996572068</c:v>
+                  <c:v>-2.5020432687676859</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>-7.6445477086157538</c:v>
+                  <c:v>-2.6848249285040069</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>-7.8426035175743039</c:v>
+                  <c:v>-2.868587588240338</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>-8.0416403265328498</c:v>
+                  <c:v>-3.0533312479766579</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>-8.2416581354913916</c:v>
+                  <c:v>-3.2390559077129808</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>-8.4426569444499435</c:v>
+                  <c:v>-3.4257615674493067</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>-8.6446367534084985</c:v>
+                  <c:v>-3.6134482271856356</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>-8.847597562367028</c:v>
+                  <c:v>-3.8021158869219391</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>-9.0515393713255818</c:v>
+                  <c:v>-3.991764546658267</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>-9.2564621802841245</c:v>
+                  <c:v>-4.1823942063945836</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>-9.4623659892426701</c:v>
+                  <c:v>-4.3740048661309103</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>-9.6692507982012259</c:v>
+                  <c:v>-4.5665965258672401</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>-9.8771166071597776</c:v>
+                  <c:v>-4.7601691856035657</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>-10.085963416118311</c:v>
+                  <c:v>-4.9547228453398802</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>-10.295791225076862</c:v>
+                  <c:v>-5.1502575050762047</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>-10.506600034035408</c:v>
+                  <c:v>-5.3467731648125252</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>-10.718389842993957</c:v>
+                  <c:v>-5.5442698245488558</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>-10.931160651952503</c:v>
+                  <c:v>-5.7427474842851751</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>-11.144912460911065</c:v>
+                  <c:v>-5.9422061440215117</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>-11.359645269869603</c:v>
+                  <c:v>-6.1426458037578229</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>-11.57535907882815</c:v>
+                  <c:v>-6.3440664634941513</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>-11.7920538877867</c:v>
+                  <c:v>-6.5464681232304756</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>-12.009729696745254</c:v>
+                  <c:v>-6.7498507829668029</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>-12.228386505703774</c:v>
+                  <c:v>-6.9542144427031047</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>-12.448024314662341</c:v>
+                  <c:v>-7.159559102439438</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>-12.668643123620882</c:v>
+                  <c:v>-7.3658847621757602</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>-12.890242932579419</c:v>
+                  <c:v>-7.5731914219120711</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>-13.11282374153798</c:v>
+                  <c:v>-7.7814790816484134</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>-13.336385550496523</c:v>
+                  <c:v>-7.9907477413847303</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>-13.560928359455062</c:v>
+                  <c:v>-8.2009974011210502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,8 +3802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CABBCB-9C0D-4051-A38C-2AD64BC0956A}">
   <dimension ref="A1:N377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:N7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="I2">
         <f>J7*PI()/180</f>
-        <v>0.69813170079773179</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="J2">
         <f>K7*1000/60/60</f>
@@ -3871,11 +3871,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">A3*J$2*COS(I$2)</f>
-        <v>0.170232098470884</v>
+        <v>0.15713484026367722</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">L$7+A3*J$2*SIN(I$2)-9.81*A3*A3/2</f>
-        <v>1.9923511910414533</v>
+        <v>2.0066443402636773</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="2">C3&lt;=0</f>
@@ -3892,11 +3892,11 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.34046419694176799</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>2.1337213820829066</v>
+        <v>2.1623076805273547</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="2"/>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.51069629541265193</v>
+        <v>0.47140452079103168</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>2.2741105731243594</v>
+        <v>2.3169900207910317</v>
       </c>
       <c r="D5" t="b">
         <f t="shared" si="2"/>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.68092839388353599</v>
+        <v>0.62853936105470887</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>2.4135187641658127</v>
+        <v>2.4706913610547088</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="2"/>
@@ -3957,10 +3957,10 @@
       <c r="L6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3970,11 +3970,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.85116049235442004</v>
+        <v>0.78567420131838628</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>2.5519459552072661</v>
+        <v>2.6234117013183864</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="2"/>
@@ -3985,7 +3985,7 @@
         <v/>
       </c>
       <c r="J7" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -3993,10 +3993,10 @@
       <c r="L7" s="3">
         <v>1.85</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="10"/>
       <c r="N7">
         <f>MIN(E:E)</f>
-        <v>51.750557935148741</v>
+        <v>52.16876696754084</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.0213925908253039</v>
+        <v>0.94280904158206336</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>2.6893921462487191</v>
+        <v>2.7751510415820633</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="2"/>
@@ -4026,11 +4026,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1.1916246892961881</v>
+        <v>1.0999438818457408</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>2.8258573372901723</v>
+        <v>2.9259093818457407</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="2"/>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1.361856787767072</v>
+        <v>1.2570787221094177</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.9613415283316256</v>
+        <v>3.0756867221094182</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="2"/>
@@ -4068,11 +4068,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.5320888862379558</v>
+        <v>1.4142135623730949</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>3.095844719373078</v>
+        <v>3.2244830623730945</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="2"/>
@@ -4089,11 +4089,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1.7023209847088401</v>
+        <v>1.5713484026367726</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>3.2293669104145319</v>
+        <v>3.3722984026367722</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="2"/>
@@ -4110,11 +4110,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.8725530831797239</v>
+        <v>1.7284832429004495</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>3.3619081014559846</v>
+        <v>3.5191327429004495</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="2"/>
@@ -4131,11 +4131,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2.0427851816506077</v>
+        <v>1.8856180831641267</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>3.4934682924974383</v>
+        <v>3.664986083164127</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="2"/>
@@ -4152,11 +4152,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>2.213017280121492</v>
+        <v>2.0427529234278041</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>3.6240474835388912</v>
+        <v>3.8098584234278037</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="2"/>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>2.3832493785923763</v>
+        <v>2.1998877636914815</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>3.7536456745803446</v>
+        <v>3.9537497636914818</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="2"/>
@@ -4194,11 +4194,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2.5534814770632597</v>
+        <v>2.3570226039551585</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>3.8822628656217977</v>
+        <v>4.0966601039551582</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="2"/>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>2.7237135755341439</v>
+        <v>2.5141574442188355</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>4.00989905666325</v>
+        <v>4.2385894442188352</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="2"/>
@@ -4236,11 +4236,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2.8939456740050282</v>
+        <v>2.6712922844825133</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>4.1365542477047041</v>
+        <v>4.3795377844825127</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="2"/>
@@ -4257,11 +4257,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3.0641777724759116</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>4.2622284387461562</v>
+        <v>4.519505124746189</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="2"/>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>3.2344098709467963</v>
+        <v>2.9855619650098677</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>4.3869216297876106</v>
+        <v>4.6584914650098677</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="2"/>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>3.4046419694176802</v>
+        <v>3.1426968052735451</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>4.5106338208290628</v>
+        <v>4.7964968052735442</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="2"/>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>3.5748740678885635</v>
+        <v>3.2998316455372216</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>4.6333650118705165</v>
+        <v>4.9335211455372212</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="2"/>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>3.7451061663594478</v>
+        <v>3.456966485800899</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>4.755115202911969</v>
+        <v>5.0695644858008979</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="2"/>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.9153382648303316</v>
+        <v>3.614101326064576</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>4.875884393953422</v>
+        <v>5.2046268260645761</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="2"/>
@@ -4383,11 +4383,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>4.0855703633012155</v>
+        <v>3.7712361663282534</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>4.9956725849948755</v>
+        <v>5.338708166328253</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="2"/>
@@ -4404,11 +4404,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>4.2558024617720998</v>
+        <v>3.9283710065919308</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>5.1144797760363296</v>
+        <v>5.4718085065919304</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="2"/>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4.426034560242984</v>
+        <v>4.0855058468556082</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>5.2323059670777816</v>
+        <v>5.6039278468556066</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="2"/>
@@ -4446,11 +4446,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>4.5962666587138683</v>
+        <v>4.2426406871192857</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>5.3491511581192359</v>
+        <v>5.7350661871192852</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="2"/>
@@ -4467,11 +4467,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>4.7664987571847526</v>
+        <v>4.3997755273829631</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>5.4650153491606881</v>
+        <v>5.8652235273829616</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="2"/>
@@ -4488,11 +4488,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>4.936730855655636</v>
+        <v>4.5569103676466396</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>5.5798985402021408</v>
+        <v>5.9943998676466386</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="2"/>
@@ -4509,11 +4509,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>5.1069629541265193</v>
+        <v>4.714045207910317</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>5.693800731243595</v>
+        <v>6.122595207910317</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="2"/>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>5.2771950525974036</v>
+        <v>4.8711800481739944</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>5.8067219222850488</v>
+        <v>6.2498095481739933</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="2"/>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>5.4474271510682879</v>
+        <v>5.0283148884376709</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>5.9186621133265014</v>
+        <v>6.3760428884376719</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" si="2"/>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>5.6176592495391722</v>
+        <v>5.1854497287013483</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>6.0296213043679554</v>
+        <v>6.5012952287013483</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="2"/>
@@ -4593,11 +4593,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>5.7878913480100564</v>
+        <v>5.3425845689650266</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>6.1395994954094073</v>
+        <v>6.6255665689650263</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="2"/>
@@ -4614,11 +4614,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>5.9581234464809389</v>
+        <v>5.4997194092287023</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>6.2485966864508597</v>
+        <v>6.7488569092287012</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="2"/>
@@ -4635,11 +4635,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>6.1283555449518232</v>
+        <v>5.6568542494923797</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6.3566128774923136</v>
+        <v>6.8711662494923793</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="2"/>
@@ -4656,11 +4656,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>6.2985876434227075</v>
+        <v>5.8139890897560571</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>6.4636480685337663</v>
+        <v>6.9924945897560562</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="2"/>
@@ -4677,11 +4677,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>6.4688197418935927</v>
+        <v>5.9711239300197354</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>6.5697022595752195</v>
+        <v>7.1128419300197336</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="2"/>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>6.639051840364476</v>
+        <v>6.1282587702834119</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>6.6747754506166741</v>
+        <v>7.2322082702834107</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="2"/>
@@ -4719,11 +4719,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>6.8092839388353603</v>
+        <v>6.2853936105470902</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>6.7788676416581257</v>
+        <v>7.3505936105470884</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="2"/>
@@ -4740,11 +4740,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>6.9795160373062437</v>
+        <v>6.4425284508107667</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>6.8819788326995806</v>
+        <v>7.4679979508107657</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="2"/>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>7.1497481357771271</v>
+        <v>6.5996632910744433</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>6.9841090237410324</v>
+        <v>7.5844212910744417</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="2"/>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>7.3199802342480123</v>
+        <v>6.7567981313381207</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>7.0852582147824865</v>
+        <v>7.6998636313381201</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="2"/>
@@ -4803,11 +4803,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>7.4902123327188956</v>
+        <v>6.9139329716017981</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>7.1854264058239385</v>
+        <v>7.8143249716017964</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="2"/>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>7.6604444311897799</v>
+        <v>7.0710678118654755</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>7.2846135968653929</v>
+        <v>7.927805311865475</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="2"/>
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>7.8306765296606633</v>
+        <v>7.228202652129152</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>7.3828197879068451</v>
+        <v>8.0403046521291515</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="2"/>
@@ -4866,11 +4866,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>8.0009086281315476</v>
+        <v>7.3853374923928294</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>7.4800449789482979</v>
+        <v>8.1518229923928285</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="2"/>
@@ -4887,11 +4887,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>8.171140726602431</v>
+        <v>7.5424723326565069</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>7.5762891699897512</v>
+        <v>8.262360332656506</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="2"/>
@@ -4908,11 +4908,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>8.3413728250733143</v>
+        <v>7.6996071729201834</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>7.6715523610312042</v>
+        <v>8.3719166729201824</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="2"/>
@@ -4929,11 +4929,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>8.5116049235441995</v>
+        <v>7.8567420131838617</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>7.7658345520726577</v>
+        <v>8.480492013183861</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="2"/>
@@ -4950,11 +4950,11 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>8.6818370220150847</v>
+        <v>8.01387685344754</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>7.8591357431141118</v>
+        <v>8.5880863534475367</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="2"/>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>8.8520691204859681</v>
+        <v>8.1710116937112165</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>7.9514559341555646</v>
+        <v>8.6946996937112146</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="2"/>
@@ -4992,11 +4992,11 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>9.0223012189568532</v>
+        <v>8.3281465339748948</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>8.0427951251970171</v>
+        <v>8.8003320339748932</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="2"/>
@@ -5013,11 +5013,11 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>9.1925333174277366</v>
+        <v>8.4852813742385713</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>8.1331533162384702</v>
+        <v>8.9049833742385687</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="2"/>
@@ -5034,11 +5034,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>9.3627654158986218</v>
+        <v>8.6424162145022496</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>8.2225305072799237</v>
+        <v>9.0086537145022465</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="2"/>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>9.5329975143695052</v>
+        <v>8.7995510547659261</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>8.3109266983213761</v>
+        <v>9.1113430547659231</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="2"/>
@@ -5076,11 +5076,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>9.7032296128403868</v>
+        <v>8.9566858950296009</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>8.398341889362829</v>
+        <v>9.2130513950295985</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="2"/>
@@ -5097,11 +5097,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>9.8734617113112719</v>
+        <v>9.1138207352932792</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>8.4847760804042824</v>
+        <v>9.3137787352932779</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="2"/>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>10.043693809782155</v>
+        <v>9.2709555755569575</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>8.5702292714457364</v>
+        <v>9.4135250755569562</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="2"/>
@@ -5139,11 +5139,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>10.213925908253039</v>
+        <v>9.428090415820634</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>8.6547014624871892</v>
+        <v>9.5122904158206314</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="2"/>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>10.384158006723924</v>
+        <v>9.5852252560843105</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>8.7381926535286425</v>
+        <v>9.6100747560843107</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="2"/>
@@ -5181,11 +5181,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>10.554390105194807</v>
+        <v>9.7423600963479888</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>8.8207028445700963</v>
+        <v>9.706878096347987</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="2"/>
@@ -5202,11 +5202,11 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>10.724622203665692</v>
+        <v>9.8994949366116654</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>8.9022320356115472</v>
+        <v>9.8027004366116621</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="2"/>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>10.894854302136576</v>
+        <v>10.056629776875342</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>8.9827802266530021</v>
+        <v>9.8975417768753413</v>
       </c>
       <c r="D66" t="b">
         <f t="shared" si="2"/>
@@ -5244,11 +5244,11 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="4">A67*J$2*COS(I$2)</f>
-        <v>11.065086400607461</v>
+        <v>10.21376461713902</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="5">L$7+A67*J$2*SIN(I$2)-9.81*A67*A67/2</f>
-        <v>9.0623474176944558</v>
+        <v>9.9914021171390175</v>
       </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D130" si="6">C67&lt;=0</f>
@@ -5265,11 +5265,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="4"/>
-        <v>11.235318499078344</v>
+        <v>10.370899457402697</v>
       </c>
       <c r="C68">
         <f t="shared" si="5"/>
-        <v>9.1409336087359083</v>
+        <v>10.084281457402694</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="6"/>
@@ -5286,11 +5286,11 @@
       </c>
       <c r="B69">
         <f t="shared" si="4"/>
-        <v>11.405550597549228</v>
+        <v>10.528034297666375</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
-        <v>9.2185387997773631</v>
+        <v>10.176179797666371</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="6"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="B70">
         <f t="shared" si="4"/>
-        <v>11.575782696020113</v>
+        <v>10.685169137930053</v>
       </c>
       <c r="C70">
         <f t="shared" si="5"/>
-        <v>9.2951629908188149</v>
+        <v>10.267097137930051</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="6"/>
@@ -5328,11 +5328,11 @@
       </c>
       <c r="B71">
         <f t="shared" si="4"/>
-        <v>11.746014794490995</v>
+        <v>10.842303978193728</v>
       </c>
       <c r="C71">
         <f t="shared" si="5"/>
-        <v>9.3708061818602673</v>
+        <v>10.357033478193726</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="6"/>
@@ -5349,11 +5349,11 @@
       </c>
       <c r="B72">
         <f t="shared" si="4"/>
-        <v>11.916246892961878</v>
+        <v>10.999438818457405</v>
       </c>
       <c r="C72">
         <f t="shared" si="5"/>
-        <v>9.4454683729017201</v>
+        <v>10.445988818457403</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="6"/>
@@ -5370,11 +5370,11 @@
       </c>
       <c r="B73">
         <f t="shared" si="4"/>
-        <v>12.086478991432763</v>
+        <v>11.156573658721083</v>
       </c>
       <c r="C73">
         <f t="shared" si="5"/>
-        <v>9.5191495639431736</v>
+        <v>10.533963158721081</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="6"/>
@@ -5391,11 +5391,11 @@
       </c>
       <c r="B74">
         <f t="shared" si="4"/>
-        <v>12.256711089903646</v>
+        <v>11.313708498984759</v>
       </c>
       <c r="C74">
         <f t="shared" si="5"/>
-        <v>9.5918497549846258</v>
+        <v>10.620956498984757</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="6"/>
@@ -5412,11 +5412,11 @@
       </c>
       <c r="B75">
         <f t="shared" si="4"/>
-        <v>12.426943188374532</v>
+        <v>11.470843339248438</v>
       </c>
       <c r="C75">
         <f t="shared" si="5"/>
-        <v>9.6635689460260803</v>
+        <v>10.706968839248436</v>
       </c>
       <c r="D75" t="b">
         <f t="shared" si="6"/>
@@ -5433,11 +5433,11 @@
       </c>
       <c r="B76">
         <f t="shared" si="4"/>
-        <v>12.597175286845415</v>
+        <v>11.627978179512114</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
-        <v>9.7343071370675318</v>
+        <v>10.792000179512112</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="6"/>
@@ -5454,11 +5454,11 @@
       </c>
       <c r="B77">
         <f t="shared" si="4"/>
-        <v>12.767407385316298</v>
+        <v>11.785113019775791</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
-        <v>9.8040643281089856</v>
+        <v>10.876050519775788</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="6"/>
@@ -5475,11 +5475,11 @@
       </c>
       <c r="B78">
         <f t="shared" si="4"/>
-        <v>12.937639483787185</v>
+        <v>11.942247860039471</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
-        <v>9.87284051915044</v>
+        <v>10.959119860039468</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="6"/>
@@ -5496,11 +5496,11 @@
       </c>
       <c r="B79">
         <f t="shared" si="4"/>
-        <v>13.107871582258069</v>
+        <v>12.099382700303147</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
-        <v>9.9406357101918914</v>
+        <v>11.041208200303146</v>
       </c>
       <c r="D79" t="b">
         <f t="shared" si="6"/>
@@ -5517,11 +5517,11 @@
       </c>
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>13.278103680728952</v>
+        <v>12.256517540566824</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
-        <v>10.007449901233347</v>
+        <v>11.122315540566822</v>
       </c>
       <c r="D80" t="b">
         <f t="shared" si="6"/>
@@ -5538,11 +5538,11 @@
       </c>
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>13.448335779199837</v>
+        <v>12.413652380830502</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
-        <v>10.073283092274799</v>
+        <v>11.202441880830499</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="6"/>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>13.618567877670721</v>
+        <v>12.57078722109418</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
-        <v>10.138135283316252</v>
+        <v>11.281587221094176</v>
       </c>
       <c r="D82" t="b">
         <f t="shared" si="6"/>
@@ -5580,11 +5580,11 @@
       </c>
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>13.788799976141604</v>
+        <v>12.727922061357857</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
-        <v>10.202006474357706</v>
+        <v>11.359751561357854</v>
       </c>
       <c r="D83" t="b">
         <f t="shared" si="6"/>
@@ -5601,11 +5601,11 @@
       </c>
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>13.959032074612487</v>
+        <v>12.885056901621533</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
-        <v>10.26489666539916</v>
+        <v>11.436934901621532</v>
       </c>
       <c r="D84" t="b">
         <f t="shared" si="6"/>
@@ -5622,11 +5622,11 @@
       </c>
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>14.129264173083371</v>
+        <v>13.04219174188521</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
-        <v>10.326805856440611</v>
+        <v>11.513137241885207</v>
       </c>
       <c r="D85" t="b">
         <f t="shared" si="6"/>
@@ -5643,11 +5643,11 @@
       </c>
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>14.299496271554254</v>
+        <v>13.199326582148887</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
-        <v>10.387734047482065</v>
+        <v>11.588358582148885</v>
       </c>
       <c r="D86" t="b">
         <f t="shared" si="6"/>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="B87">
         <f t="shared" si="4"/>
-        <v>14.469728370025141</v>
+        <v>13.356461422412565</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
-        <v>10.44768123852352</v>
+        <v>11.662598922412563</v>
       </c>
       <c r="D87" t="b">
         <f t="shared" si="6"/>
@@ -5685,11 +5685,11 @@
       </c>
       <c r="B88">
         <f t="shared" si="4"/>
-        <v>14.639960468496025</v>
+        <v>13.513596262676241</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
-        <v>10.506647429564971</v>
+        <v>11.735858262676238</v>
       </c>
       <c r="D88" t="b">
         <f t="shared" si="6"/>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="B89">
         <f t="shared" si="4"/>
-        <v>14.810192566966908</v>
+        <v>13.67073110293992</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
-        <v>10.564632620606424</v>
+        <v>11.808136602939916</v>
       </c>
       <c r="D89" t="b">
         <f t="shared" si="6"/>
@@ -5727,11 +5727,11 @@
       </c>
       <c r="B90">
         <f t="shared" si="4"/>
-        <v>14.980424665437791</v>
+        <v>13.827865943203596</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
-        <v>10.621636811647877</v>
+        <v>11.879433943203592</v>
       </c>
       <c r="D90" t="b">
         <f t="shared" si="6"/>
@@ -5748,11 +5748,11 @@
       </c>
       <c r="B91">
         <f t="shared" si="4"/>
-        <v>15.150656763908676</v>
+        <v>13.985000783467274</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
-        <v>10.677660002689333</v>
+        <v>11.949750283467273</v>
       </c>
       <c r="D91" t="b">
         <f t="shared" si="6"/>
@@ -5769,11 +5769,11 @@
       </c>
       <c r="B92">
         <f t="shared" si="4"/>
-        <v>15.32088886237956</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
-        <v>10.732702193730784</v>
+        <v>12.019085623730948</v>
       </c>
       <c r="D92" t="b">
         <f t="shared" si="6"/>
@@ -5790,11 +5790,11 @@
       </c>
       <c r="B93">
         <f t="shared" si="4"/>
-        <v>15.491120960850443</v>
+        <v>14.299270463994628</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
-        <v>10.786763384772236</v>
+        <v>12.087439963994624</v>
       </c>
       <c r="D93" t="b">
         <f t="shared" si="6"/>
@@ -5811,11 +5811,11 @@
       </c>
       <c r="B94">
         <f t="shared" si="4"/>
-        <v>15.661353059321327</v>
+        <v>14.456405304258304</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
-        <v>10.839843575813688</v>
+        <v>12.154813304258301</v>
       </c>
       <c r="D94" t="b">
         <f t="shared" si="6"/>
@@ -5832,11 +5832,11 @@
       </c>
       <c r="B95">
         <f t="shared" si="4"/>
-        <v>15.831585157792214</v>
+        <v>14.613540144521984</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
-        <v>10.891942766855145</v>
+        <v>12.221205644521982</v>
       </c>
       <c r="D95" t="b">
         <f t="shared" si="6"/>
@@ -5853,11 +5853,11 @@
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>16.001817256263095</v>
+        <v>14.770674984785659</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
-        <v>10.943060957896595</v>
+        <v>12.286616984785656</v>
       </c>
       <c r="D96" t="b">
         <f t="shared" si="6"/>
@@ -5874,11 +5874,11 @@
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>16.172049354733979</v>
+        <v>14.927809825049337</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
-        <v>10.993198148938049</v>
+        <v>12.351047325049336</v>
       </c>
       <c r="D97" t="b">
         <f t="shared" si="6"/>
@@ -5895,11 +5895,11 @@
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>16.342281453204862</v>
+        <v>15.084944665313014</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
-        <v>11.042354339979504</v>
+        <v>12.414496665313012</v>
       </c>
       <c r="D98" t="b">
         <f t="shared" si="6"/>
@@ -5916,11 +5916,11 @@
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>16.512513551675745</v>
+        <v>15.24207950557669</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
-        <v>11.090529531020955</v>
+        <v>12.476965005576687</v>
       </c>
       <c r="D99" t="b">
         <f t="shared" si="6"/>
@@ -5937,11 +5937,11 @@
       </c>
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>16.682745650146629</v>
+        <v>15.399214345840367</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
-        <v>11.137723722062407</v>
+        <v>12.538452345840366</v>
       </c>
       <c r="D100" t="b">
         <f t="shared" si="6"/>
@@ -5958,11 +5958,11 @@
       </c>
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>16.852977748617516</v>
+        <v>15.556349186104047</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
-        <v>11.183936913103862</v>
+        <v>12.598958686104044</v>
       </c>
       <c r="D101" t="b">
         <f t="shared" si="6"/>
@@ -5979,11 +5979,11 @@
       </c>
       <c r="B102">
         <f t="shared" si="4"/>
-        <v>17.023209847088399</v>
+        <v>15.713484026367723</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
-        <v>11.229169104145317</v>
+        <v>12.65848402636772</v>
       </c>
       <c r="D102" t="b">
         <f t="shared" si="6"/>
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B103">
         <f t="shared" si="4"/>
-        <v>17.193441945559282</v>
+        <v>15.8706188666314</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
-        <v>11.273420295186767</v>
+        <v>12.717028366631396</v>
       </c>
       <c r="D103" t="b">
         <f t="shared" si="6"/>
@@ -6021,11 +6021,11 @@
       </c>
       <c r="B104">
         <f t="shared" si="4"/>
-        <v>17.363674044030169</v>
+        <v>16.02775370689508</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
-        <v>11.316690486228222</v>
+        <v>12.774591706895077</v>
       </c>
       <c r="D104" t="b">
         <f t="shared" si="6"/>
@@ -6042,11 +6042,11 @@
       </c>
       <c r="B105">
         <f t="shared" si="4"/>
-        <v>17.533906142501053</v>
+        <v>16.184888547158756</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
-        <v>11.358979677269677</v>
+        <v>12.831174047158754</v>
       </c>
       <c r="D105" t="b">
         <f t="shared" si="6"/>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="B106">
         <f t="shared" si="4"/>
-        <v>17.704138240971936</v>
+        <v>16.342023387422433</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
-        <v>11.40028786831113</v>
+        <v>12.88677538742243</v>
       </c>
       <c r="D106" t="b">
         <f t="shared" si="6"/>
@@ -6084,11 +6084,11 @@
       </c>
       <c r="B107">
         <f t="shared" si="4"/>
-        <v>17.874370339442819</v>
+        <v>16.49915822768611</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
-        <v>11.440615059352581</v>
+        <v>12.941395727686107</v>
       </c>
       <c r="D107" t="b">
         <f t="shared" si="6"/>
@@ -6105,11 +6105,11 @@
       </c>
       <c r="B108">
         <f t="shared" si="4"/>
-        <v>18.044602437913706</v>
+        <v>16.65629306794979</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
-        <v>11.479961250394037</v>
+        <v>12.995035067949786</v>
       </c>
       <c r="D108" t="b">
         <f t="shared" si="6"/>
@@ -6126,11 +6126,11 @@
       </c>
       <c r="B109">
         <f t="shared" si="4"/>
-        <v>18.21483453638459</v>
+        <v>16.813427908213466</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
-        <v>11.518326441435489</v>
+        <v>13.047693408213464</v>
       </c>
       <c r="D109" t="b">
         <f t="shared" si="6"/>
@@ -6147,11 +6147,11 @@
       </c>
       <c r="B110">
         <f t="shared" si="4"/>
-        <v>18.385066634855473</v>
+        <v>16.970562748477143</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
-        <v>11.555710632476941</v>
+        <v>13.099370748477138</v>
       </c>
       <c r="D110" t="b">
         <f t="shared" si="6"/>
@@ -6168,11 +6168,11 @@
       </c>
       <c r="B111">
         <f t="shared" si="4"/>
-        <v>18.555298733326357</v>
+        <v>17.127697588740819</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
-        <v>11.592113823518392</v>
+        <v>13.150067088740816</v>
       </c>
       <c r="D111" t="b">
         <f t="shared" si="6"/>
@@ -6189,11 +6189,11 @@
       </c>
       <c r="B112">
         <f t="shared" si="4"/>
-        <v>18.725530831797244</v>
+        <v>17.284832429004499</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
-        <v>11.627536014559851</v>
+        <v>13.199782429004497</v>
       </c>
       <c r="D112" t="b">
         <f t="shared" si="6"/>
@@ -6210,11 +6210,11 @@
       </c>
       <c r="B113">
         <f t="shared" si="4"/>
-        <v>18.895762930268127</v>
+        <v>17.441967269268176</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
-        <v>11.6619772056013</v>
+        <v>13.248516769268171</v>
       </c>
       <c r="D113" t="b">
         <f t="shared" si="6"/>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="B114">
         <f t="shared" si="4"/>
-        <v>19.06599502873901</v>
+        <v>17.599102109531852</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
-        <v>11.695437396642756</v>
+        <v>13.29627010953185</v>
       </c>
       <c r="D114" t="b">
         <f t="shared" si="6"/>
@@ -6252,11 +6252,11 @@
       </c>
       <c r="B115">
         <f t="shared" si="4"/>
-        <v>19.23622712720989</v>
+        <v>17.756236949795525</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
-        <v>11.727916587684208</v>
+        <v>13.343042449795524</v>
       </c>
       <c r="D115" t="b">
         <f t="shared" si="6"/>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="B116">
         <f t="shared" si="4"/>
-        <v>19.406459225680774</v>
+        <v>17.913371790059202</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
-        <v>11.759414778725663</v>
+        <v>13.388833790059202</v>
       </c>
       <c r="D116" t="b">
         <f t="shared" si="6"/>
@@ -6294,11 +6294,11 @@
       </c>
       <c r="B117">
         <f t="shared" si="4"/>
-        <v>19.57669132415166</v>
+        <v>18.070506630322882</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
-        <v>11.789931969767116</v>
+        <v>13.433644130322881</v>
       </c>
       <c r="D117" t="b">
         <f t="shared" si="6"/>
@@ -6315,11 +6315,11 @@
       </c>
       <c r="B118">
         <f t="shared" si="4"/>
-        <v>19.746923422622544</v>
+        <v>18.227641470586558</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
-        <v>11.819468160808565</v>
+        <v>13.477473470586556</v>
       </c>
       <c r="D118" t="b">
         <f t="shared" si="6"/>
@@ -6336,11 +6336,11 @@
       </c>
       <c r="B119">
         <f t="shared" si="4"/>
-        <v>19.917155521093427</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
-        <v>11.848023351850021</v>
+        <v>13.520321810850234</v>
       </c>
       <c r="D119" t="b">
         <f t="shared" si="6"/>
@@ -6357,11 +6357,11 @@
       </c>
       <c r="B120">
         <f t="shared" si="4"/>
-        <v>20.087387619564311</v>
+        <v>18.541911151113915</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
-        <v>11.875597542891473</v>
+        <v>13.562189151113913</v>
       </c>
       <c r="D120" t="b">
         <f t="shared" si="6"/>
@@ -6378,11 +6378,11 @@
       </c>
       <c r="B121">
         <f t="shared" si="4"/>
-        <v>20.257619718035194</v>
+        <v>18.699045991377591</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
-        <v>11.902190733932928</v>
+        <v>13.60307549137759</v>
       </c>
       <c r="D121" t="b">
         <f t="shared" si="6"/>
@@ -6399,11 +6399,11 @@
       </c>
       <c r="B122">
         <f t="shared" si="4"/>
-        <v>20.427851816506077</v>
+        <v>18.856180831641268</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
-        <v>11.927802924974381</v>
+        <v>13.642980831641266</v>
       </c>
       <c r="D122" t="b">
         <f t="shared" si="6"/>
@@ -6420,11 +6420,11 @@
       </c>
       <c r="B123">
         <f t="shared" si="4"/>
-        <v>20.598083914976961</v>
+        <v>19.013315671904945</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
-        <v>11.952434116015832</v>
+        <v>13.681905171904942</v>
       </c>
       <c r="D123" t="b">
         <f t="shared" si="6"/>
@@ -6441,11 +6441,11 @@
       </c>
       <c r="B124">
         <f t="shared" si="4"/>
-        <v>20.768316013447848</v>
+        <v>19.170450512168621</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
-        <v>11.976084307057286</v>
+        <v>13.719848512168623</v>
       </c>
       <c r="D124" t="b">
         <f t="shared" si="6"/>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="B125">
         <f t="shared" si="4"/>
-        <v>20.938548111918731</v>
+        <v>19.327585352432301</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
-        <v>11.99875349809874</v>
+        <v>13.756810852432299</v>
       </c>
       <c r="D125" t="b">
         <f t="shared" si="6"/>
@@ -6483,11 +6483,11 @@
       </c>
       <c r="B126">
         <f t="shared" si="4"/>
-        <v>21.108780210389614</v>
+        <v>19.484720192695978</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
-        <v>12.020441689140194</v>
+        <v>13.792792192695975</v>
       </c>
       <c r="D126" t="b">
         <f t="shared" si="6"/>
@@ -6504,11 +6504,11 @@
       </c>
       <c r="B127">
         <f t="shared" si="4"/>
-        <v>21.279012308860501</v>
+        <v>19.641855032959654</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
-        <v>12.041148880181648</v>
+        <v>13.827792532959652</v>
       </c>
       <c r="D127" t="b">
         <f t="shared" si="6"/>
@@ -6525,11 +6525,11 @@
       </c>
       <c r="B128">
         <f t="shared" si="4"/>
-        <v>21.449244407331385</v>
+        <v>19.798989873223331</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
-        <v>12.060875071223098</v>
+        <v>13.861811873223328</v>
       </c>
       <c r="D128" t="b">
         <f t="shared" si="6"/>
@@ -6546,11 +6546,11 @@
       </c>
       <c r="B129">
         <f t="shared" si="4"/>
-        <v>21.619476505802268</v>
+        <v>19.956124713487007</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
-        <v>12.079620262264552</v>
+        <v>13.894850213487008</v>
       </c>
       <c r="D129" t="b">
         <f t="shared" si="6"/>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="B130">
         <f t="shared" si="4"/>
-        <v>21.789708604273152</v>
+        <v>20.113259553750684</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
-        <v>12.097384453306006</v>
+        <v>13.926907553750684</v>
       </c>
       <c r="D130" t="b">
         <f t="shared" si="6"/>
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="8">A131*J$2*COS(I$2)</f>
-        <v>21.959940702744039</v>
+        <v>20.270394394014364</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="9">L$7+A131*J$2*SIN(I$2)-9.81*A131*A131/2</f>
-        <v>12.114167644347459</v>
+        <v>13.95798389401436</v>
       </c>
       <c r="D131" t="b">
         <f t="shared" ref="D131:D194" si="10">C131&lt;=0</f>
@@ -6609,11 +6609,11 @@
       </c>
       <c r="B132">
         <f t="shared" si="8"/>
-        <v>22.130172801214922</v>
+        <v>20.42752923427804</v>
       </c>
       <c r="C132">
         <f t="shared" si="9"/>
-        <v>12.129969835388913</v>
+        <v>13.988079234278036</v>
       </c>
       <c r="D132" t="b">
         <f t="shared" si="10"/>
@@ -6630,11 +6630,11 @@
       </c>
       <c r="B133">
         <f t="shared" si="8"/>
-        <v>22.300404899685805</v>
+        <v>20.584664074541717</v>
       </c>
       <c r="C133">
         <f t="shared" si="9"/>
-        <v>12.144791026430365</v>
+        <v>14.017193574541714</v>
       </c>
       <c r="D133" t="b">
         <f t="shared" si="10"/>
@@ -6651,11 +6651,11 @@
       </c>
       <c r="B134">
         <f t="shared" si="8"/>
-        <v>22.470636998156689</v>
+        <v>20.741798914805393</v>
       </c>
       <c r="C134">
         <f t="shared" si="9"/>
-        <v>12.158631217471818</v>
+        <v>14.04532691480539</v>
       </c>
       <c r="D134" t="b">
         <f t="shared" si="10"/>
@@ -6672,11 +6672,11 @@
       </c>
       <c r="B135">
         <f t="shared" si="8"/>
-        <v>22.640869096627572</v>
+        <v>20.898933755069073</v>
       </c>
       <c r="C135">
         <f t="shared" si="9"/>
-        <v>12.171490408513272</v>
+        <v>14.072479255069069</v>
       </c>
       <c r="D135" t="b">
         <f t="shared" si="10"/>
@@ -6693,11 +6693,11 @@
       </c>
       <c r="B136">
         <f t="shared" si="8"/>
-        <v>22.811101195098455</v>
+        <v>21.05606859533275</v>
       </c>
       <c r="C136">
         <f t="shared" si="9"/>
-        <v>12.183368599554726</v>
+        <v>14.098650595332746</v>
       </c>
       <c r="D136" t="b">
         <f t="shared" si="10"/>
@@ -6714,11 +6714,11 @@
       </c>
       <c r="B137">
         <f t="shared" si="8"/>
-        <v>22.981333293569339</v>
+        <v>21.213203435596427</v>
       </c>
       <c r="C137">
         <f t="shared" si="9"/>
-        <v>12.194265790596177</v>
+        <v>14.123840935596423</v>
       </c>
       <c r="D137" t="b">
         <f t="shared" si="10"/>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="B138">
         <f t="shared" si="8"/>
-        <v>23.151565392040226</v>
+        <v>21.370338275860107</v>
       </c>
       <c r="C138">
         <f t="shared" si="9"/>
-        <v>12.20418198163763</v>
+        <v>14.148050275860102</v>
       </c>
       <c r="D138" t="b">
         <f t="shared" si="10"/>
@@ -6756,11 +6756,11 @@
       </c>
       <c r="B139">
         <f t="shared" si="8"/>
-        <v>23.321797490511109</v>
+        <v>21.527473116123783</v>
       </c>
       <c r="C139">
         <f t="shared" si="9"/>
-        <v>12.213117172679084</v>
+        <v>14.171278616123779</v>
       </c>
       <c r="D139" t="b">
         <f t="shared" si="10"/>
@@ -6777,11 +6777,11 @@
       </c>
       <c r="B140">
         <f t="shared" si="8"/>
-        <v>23.492029588981989</v>
+        <v>21.684607956387456</v>
       </c>
       <c r="C140">
         <f t="shared" si="9"/>
-        <v>12.221071363720538</v>
+        <v>14.193525956387456</v>
       </c>
       <c r="D140" t="b">
         <f t="shared" si="10"/>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="B141">
         <f t="shared" si="8"/>
-        <v>23.662261687452872</v>
+        <v>21.841742796651133</v>
       </c>
       <c r="C141">
         <f t="shared" si="9"/>
-        <v>12.228044554761992</v>
+        <v>14.214792296651131</v>
       </c>
       <c r="D141" t="b">
         <f t="shared" si="10"/>
@@ -6819,11 +6819,11 @@
       </c>
       <c r="B142">
         <f t="shared" si="8"/>
-        <v>23.832493785923756</v>
+        <v>21.998877636914809</v>
       </c>
       <c r="C142">
         <f t="shared" si="9"/>
-        <v>12.234036745803442</v>
+        <v>14.235077636914808</v>
       </c>
       <c r="D142" t="b">
         <f t="shared" si="10"/>
@@ -6840,11 +6840,11 @@
       </c>
       <c r="B143">
         <f t="shared" si="8"/>
-        <v>24.002725884394643</v>
+        <v>22.156012477178489</v>
       </c>
       <c r="C143">
         <f t="shared" si="9"/>
-        <v>12.2390479368449</v>
+        <v>14.254381977178488</v>
       </c>
       <c r="D143" t="b">
         <f t="shared" si="10"/>
@@ -6861,11 +6861,11 @@
       </c>
       <c r="B144">
         <f t="shared" si="8"/>
-        <v>24.172957982865526</v>
+        <v>22.313147317442166</v>
       </c>
       <c r="C144">
         <f t="shared" si="9"/>
-        <v>12.243078127886351</v>
+        <v>14.272705317442165</v>
       </c>
       <c r="D144" t="b">
         <f t="shared" si="10"/>
@@ -6882,11 +6882,11 @@
       </c>
       <c r="B145">
         <f t="shared" si="8"/>
-        <v>24.343190081336409</v>
+        <v>22.470282157705842</v>
       </c>
       <c r="C145">
         <f t="shared" si="9"/>
-        <v>12.246127318927805</v>
+        <v>14.290047657705841</v>
       </c>
       <c r="D145" t="b">
         <f t="shared" si="10"/>
@@ -6903,11 +6903,11 @@
       </c>
       <c r="B146">
         <f t="shared" si="8"/>
-        <v>24.513422179807293</v>
+        <v>22.627416997969519</v>
       </c>
       <c r="C146">
         <f t="shared" si="9"/>
-        <v>12.248195509969253</v>
+        <v>14.306408997969516</v>
       </c>
       <c r="D146" t="b">
         <f t="shared" si="10"/>
@@ -6924,11 +6924,11 @@
       </c>
       <c r="B147">
         <f t="shared" si="8"/>
-        <v>24.68365427827818</v>
+        <v>22.784551838233199</v>
       </c>
       <c r="C147">
         <f t="shared" si="9"/>
-        <v>12.249282701010712</v>
+        <v>14.321789338233197</v>
       </c>
       <c r="D147" t="b">
         <f t="shared" si="10"/>
@@ -6945,11 +6945,11 @@
       </c>
       <c r="B148">
         <f t="shared" si="8"/>
-        <v>24.853886376749063</v>
+        <v>22.941686678496875</v>
       </c>
       <c r="C148">
         <f t="shared" si="9"/>
-        <v>12.249388892052163</v>
+        <v>14.336188678496875</v>
       </c>
       <c r="D148" t="b">
         <f t="shared" si="10"/>
@@ -6966,11 +6966,11 @@
       </c>
       <c r="B149">
         <f t="shared" si="8"/>
-        <v>25.024118475219947</v>
+        <v>23.098821518760552</v>
       </c>
       <c r="C149">
         <f t="shared" si="9"/>
-        <v>12.248514083093616</v>
+        <v>14.349607018760549</v>
       </c>
       <c r="D149" t="b">
         <f t="shared" si="10"/>
@@ -6987,11 +6987,11 @@
       </c>
       <c r="B150">
         <f t="shared" si="8"/>
-        <v>25.19435057369083</v>
+        <v>23.255956359024228</v>
       </c>
       <c r="C150">
         <f t="shared" si="9"/>
-        <v>12.246658274135067</v>
+        <v>14.362044359024226</v>
       </c>
       <c r="D150" t="b">
         <f t="shared" si="10"/>
@@ -7008,11 +7008,11 @@
       </c>
       <c r="B151">
         <f t="shared" si="8"/>
-        <v>25.364582672161713</v>
+        <v>23.413091199287905</v>
       </c>
       <c r="C151">
         <f t="shared" si="9"/>
-        <v>12.24382146517652</v>
+        <v>14.373500699287902</v>
       </c>
       <c r="D151" t="b">
         <f t="shared" si="10"/>
@@ -7029,11 +7029,11 @@
       </c>
       <c r="B152">
         <f t="shared" si="8"/>
-        <v>25.534814770632597</v>
+        <v>23.570226039551581</v>
       </c>
       <c r="C152">
         <f t="shared" si="9"/>
-        <v>12.240003656217976</v>
+        <v>14.38397603955158</v>
       </c>
       <c r="D152" t="b">
         <f t="shared" si="10"/>
@@ -7050,11 +7050,11 @@
       </c>
       <c r="B153">
         <f t="shared" si="8"/>
-        <v>25.705046869103487</v>
+        <v>23.727360879815265</v>
       </c>
       <c r="C153">
         <f t="shared" si="9"/>
-        <v>12.235204847259432</v>
+        <v>14.393470379815263</v>
       </c>
       <c r="D153" t="b">
         <f t="shared" si="10"/>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="B154">
         <f t="shared" si="8"/>
-        <v>25.875278967574371</v>
+        <v>23.884495720078942</v>
       </c>
       <c r="C154">
         <f t="shared" si="9"/>
-        <v>12.229425038300882</v>
+        <v>14.401983720078938</v>
       </c>
       <c r="D154" t="b">
         <f t="shared" si="10"/>
@@ -7092,11 +7092,11 @@
       </c>
       <c r="B155">
         <f t="shared" si="8"/>
-        <v>26.045511066045254</v>
+        <v>24.041630560342618</v>
       </c>
       <c r="C155">
         <f t="shared" si="9"/>
-        <v>12.222664229342335</v>
+        <v>14.409516060342614</v>
       </c>
       <c r="D155" t="b">
         <f t="shared" si="10"/>
@@ -7113,11 +7113,11 @@
       </c>
       <c r="B156">
         <f t="shared" si="8"/>
-        <v>26.215743164516137</v>
+        <v>24.198765400606295</v>
       </c>
       <c r="C156">
         <f t="shared" si="9"/>
-        <v>12.214922420383786</v>
+        <v>14.416067400606291</v>
       </c>
       <c r="D156" t="b">
         <f t="shared" si="10"/>
@@ -7134,11 +7134,11 @@
       </c>
       <c r="B157">
         <f t="shared" si="8"/>
-        <v>26.385975262987021</v>
+        <v>24.355900240869971</v>
       </c>
       <c r="C157">
         <f t="shared" si="9"/>
-        <v>12.206199611425241</v>
+        <v>14.421637740869969</v>
       </c>
       <c r="D157" t="b">
         <f t="shared" si="10"/>
@@ -7155,11 +7155,11 @@
       </c>
       <c r="B158">
         <f t="shared" si="8"/>
-        <v>26.556207361457904</v>
+        <v>24.513035081133648</v>
       </c>
       <c r="C158">
         <f t="shared" si="9"/>
-        <v>12.196495802466695</v>
+        <v>14.426227081133645</v>
       </c>
       <c r="D158" t="b">
         <f t="shared" si="10"/>
@@ -7176,11 +7176,11 @@
       </c>
       <c r="B159">
         <f t="shared" si="8"/>
-        <v>26.726439459928788</v>
+        <v>24.670169921397324</v>
       </c>
       <c r="C159">
         <f t="shared" si="9"/>
-        <v>12.185810993508143</v>
+        <v>14.429835421397319</v>
       </c>
       <c r="D159" t="b">
         <f t="shared" si="10"/>
@@ -7197,11 +7197,11 @@
       </c>
       <c r="B160">
         <f t="shared" si="8"/>
-        <v>26.896671558399674</v>
+        <v>24.827304761661004</v>
       </c>
       <c r="C160">
         <f t="shared" si="9"/>
-        <v>12.174145184549602</v>
+        <v>14.432462761661</v>
       </c>
       <c r="D160" t="b">
         <f t="shared" si="10"/>
@@ -7218,11 +7218,11 @@
       </c>
       <c r="B161">
         <f t="shared" si="8"/>
-        <v>27.066903656870558</v>
+        <v>24.984439601924681</v>
       </c>
       <c r="C161">
         <f t="shared" si="9"/>
-        <v>12.161498375591057</v>
+        <v>14.434109101924678</v>
       </c>
       <c r="D161" t="b">
         <f t="shared" si="10"/>
@@ -7239,11 +7239,11 @@
       </c>
       <c r="B162">
         <f t="shared" si="8"/>
-        <v>27.237135755341441</v>
+        <v>25.141574442188361</v>
       </c>
       <c r="C162">
         <f t="shared" si="9"/>
-        <v>12.147870566632506</v>
+        <v>14.434774442188353</v>
       </c>
       <c r="D162" t="b">
         <f t="shared" si="10"/>
@@ -7260,11 +7260,11 @@
       </c>
       <c r="B163">
         <f t="shared" si="8"/>
-        <v>27.407367853812325</v>
+        <v>25.298709282452037</v>
       </c>
       <c r="C163">
         <f t="shared" si="9"/>
-        <v>12.13326175767396</v>
+        <v>14.43445878245203</v>
       </c>
       <c r="D163" t="b">
         <f t="shared" si="10"/>
@@ -7281,11 +7281,11 @@
       </c>
       <c r="B164">
         <f t="shared" si="8"/>
-        <v>27.577599952283208</v>
+        <v>25.455844122715714</v>
       </c>
       <c r="C164">
         <f t="shared" si="9"/>
-        <v>12.117671948715413</v>
+        <v>14.433162122715709</v>
       </c>
       <c r="D164" t="b">
         <f t="shared" si="10"/>
@@ -7302,11 +7302,11 @@
       </c>
       <c r="B165">
         <f t="shared" si="8"/>
-        <v>27.747832050754091</v>
+        <v>25.61297896297939</v>
       </c>
       <c r="C165">
         <f t="shared" si="9"/>
-        <v>12.101101139756867</v>
+        <v>14.430884462979389</v>
       </c>
       <c r="D165" t="b">
         <f t="shared" si="10"/>
@@ -7323,11 +7323,11 @@
       </c>
       <c r="B166">
         <f t="shared" si="8"/>
-        <v>27.918064149224975</v>
+        <v>25.770113803243067</v>
       </c>
       <c r="C166">
         <f t="shared" si="9"/>
-        <v>12.083549330798322</v>
+        <v>14.427625803243066</v>
       </c>
       <c r="D166" t="b">
         <f t="shared" si="10"/>
@@ -7344,11 +7344,11 @@
       </c>
       <c r="B167">
         <f t="shared" si="8"/>
-        <v>28.088296247695858</v>
+        <v>25.927248643506744</v>
       </c>
       <c r="C167">
         <f t="shared" si="9"/>
-        <v>12.065016521839773</v>
+        <v>14.423386143506743</v>
       </c>
       <c r="D167" t="b">
         <f t="shared" si="10"/>
@@ -7365,11 +7365,11 @@
       </c>
       <c r="B168">
         <f t="shared" si="8"/>
-        <v>28.258528346166742</v>
+        <v>26.08438348377042</v>
       </c>
       <c r="C168">
         <f t="shared" si="9"/>
-        <v>12.045502712881225</v>
+        <v>14.418165483770418</v>
       </c>
       <c r="D168" t="b">
         <f t="shared" si="10"/>
@@ -7386,11 +7386,11 @@
       </c>
       <c r="B169">
         <f t="shared" si="8"/>
-        <v>28.428760444637625</v>
+        <v>26.241518324034097</v>
       </c>
       <c r="C169">
         <f t="shared" si="9"/>
-        <v>12.025007903922679</v>
+        <v>14.411963824034094</v>
       </c>
       <c r="D169" t="b">
         <f t="shared" si="10"/>
@@ -7407,11 +7407,11 @@
       </c>
       <c r="B170">
         <f t="shared" si="8"/>
-        <v>28.598992543108508</v>
+        <v>26.398653164297773</v>
       </c>
       <c r="C170">
         <f t="shared" si="9"/>
-        <v>12.003532094964132</v>
+        <v>14.404781164297773</v>
       </c>
       <c r="D170" t="b">
         <f t="shared" si="10"/>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="B171">
         <f t="shared" si="8"/>
-        <v>28.769224641579392</v>
+        <v>26.55578800456145</v>
       </c>
       <c r="C171">
         <f t="shared" si="9"/>
-        <v>11.981075286005584</v>
+        <v>14.396617504561448</v>
       </c>
       <c r="D171" t="b">
         <f t="shared" si="10"/>
@@ -7449,11 +7449,11 @@
       </c>
       <c r="B172">
         <f t="shared" si="8"/>
-        <v>28.939456740050282</v>
+        <v>26.71292284482513</v>
       </c>
       <c r="C172">
         <f t="shared" si="9"/>
-        <v>11.957637477047042</v>
+        <v>14.387472844825128</v>
       </c>
       <c r="D172" t="b">
         <f t="shared" si="10"/>
@@ -7470,11 +7470,11 @@
       </c>
       <c r="B173">
         <f t="shared" si="8"/>
-        <v>29.109688838521166</v>
+        <v>26.870057685088806</v>
       </c>
       <c r="C173">
         <f t="shared" si="9"/>
-        <v>11.933218668088491</v>
+        <v>14.377347185088803</v>
       </c>
       <c r="D173" t="b">
         <f t="shared" si="10"/>
@@ -7491,11 +7491,11 @@
       </c>
       <c r="B174">
         <f t="shared" si="8"/>
-        <v>29.279920936992049</v>
+        <v>27.027192525352483</v>
       </c>
       <c r="C174">
         <f t="shared" si="9"/>
-        <v>11.907818859129947</v>
+        <v>14.366240525352481</v>
       </c>
       <c r="D174" t="b">
         <f t="shared" si="10"/>
@@ -7512,11 +7512,11 @@
       </c>
       <c r="B175">
         <f t="shared" si="8"/>
-        <v>29.450153035462932</v>
+        <v>27.184327365616163</v>
       </c>
       <c r="C175">
         <f t="shared" si="9"/>
-        <v>11.881438050171397</v>
+        <v>14.354152865616157</v>
       </c>
       <c r="D175" t="b">
         <f t="shared" si="10"/>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="B176">
         <f t="shared" si="8"/>
-        <v>29.620385133933816</v>
+        <v>27.341462205879839</v>
       </c>
       <c r="C176">
         <f t="shared" si="9"/>
-        <v>11.85407624121285</v>
+        <v>14.341084205879833</v>
       </c>
       <c r="D176" t="b">
         <f t="shared" si="10"/>
@@ -7554,11 +7554,11 @@
       </c>
       <c r="B177">
         <f t="shared" si="8"/>
-        <v>29.790617232404699</v>
+        <v>27.498597046143516</v>
       </c>
       <c r="C177">
         <f t="shared" si="9"/>
-        <v>11.825733432254305</v>
+        <v>14.32703454614351</v>
       </c>
       <c r="D177" t="b">
         <f t="shared" si="10"/>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="B178">
         <f t="shared" si="8"/>
-        <v>29.960849330875583</v>
+        <v>27.655731886407192</v>
       </c>
       <c r="C178">
         <f t="shared" si="9"/>
-        <v>11.796409623295753</v>
+        <v>14.312003886407185</v>
       </c>
       <c r="D178" t="b">
         <f t="shared" si="10"/>
@@ -7596,11 +7596,11 @@
       </c>
       <c r="B179">
         <f t="shared" si="8"/>
-        <v>30.131081429346469</v>
+        <v>27.812866726670872</v>
       </c>
       <c r="C179">
         <f t="shared" si="9"/>
-        <v>11.766104814337211</v>
+        <v>14.295992226670869</v>
       </c>
       <c r="D179" t="b">
         <f t="shared" si="10"/>
@@ -7617,11 +7617,11 @@
       </c>
       <c r="B180">
         <f t="shared" si="8"/>
-        <v>30.301313527817353</v>
+        <v>27.970001566934549</v>
       </c>
       <c r="C180">
         <f t="shared" si="9"/>
-        <v>11.734819005378666</v>
+        <v>14.278999566934546</v>
       </c>
       <c r="D180" t="b">
         <f t="shared" si="10"/>
@@ -7638,11 +7638,11 @@
       </c>
       <c r="B181">
         <f t="shared" si="8"/>
-        <v>30.471545626288236</v>
+        <v>28.127136407198225</v>
       </c>
       <c r="C181">
         <f t="shared" si="9"/>
-        <v>11.702552196420115</v>
+        <v>14.261025907198221</v>
       </c>
       <c r="D181" t="b">
         <f t="shared" si="10"/>
@@ -7659,11 +7659,11 @@
       </c>
       <c r="B182">
         <f t="shared" si="8"/>
-        <v>30.64177772475912</v>
+        <v>28.284271247461902</v>
       </c>
       <c r="C182">
         <f t="shared" si="9"/>
-        <v>11.669304387461571</v>
+        <v>14.242071247461899</v>
       </c>
       <c r="D182" t="b">
         <f t="shared" si="10"/>
@@ -7680,11 +7680,11 @@
       </c>
       <c r="B183">
         <f t="shared" si="8"/>
-        <v>30.812009823230003</v>
+        <v>28.441406087725579</v>
       </c>
       <c r="C183">
         <f t="shared" si="9"/>
-        <v>11.635075578503024</v>
+        <v>14.222135587725575</v>
       </c>
       <c r="D183" t="b">
         <f t="shared" si="10"/>
@@ -7701,11 +7701,11 @@
       </c>
       <c r="B184">
         <f t="shared" si="8"/>
-        <v>30.982241921700886</v>
+        <v>28.598540927989255</v>
       </c>
       <c r="C184">
         <f t="shared" si="9"/>
-        <v>11.599865769544472</v>
+        <v>14.201218927989249</v>
       </c>
       <c r="D184" t="b">
         <f t="shared" si="10"/>
@@ -7722,11 +7722,11 @@
       </c>
       <c r="B185">
         <f t="shared" si="8"/>
-        <v>31.15247402017177</v>
+        <v>28.755675768252932</v>
       </c>
       <c r="C185">
         <f t="shared" si="9"/>
-        <v>11.563674960585928</v>
+        <v>14.179321268252927</v>
       </c>
       <c r="D185" t="b">
         <f t="shared" si="10"/>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="B186">
         <f t="shared" si="8"/>
-        <v>31.322706118642653</v>
+        <v>28.912810608516608</v>
       </c>
       <c r="C186">
         <f t="shared" si="9"/>
-        <v>11.526503151627377</v>
+        <v>14.156442608516603</v>
       </c>
       <c r="D186" t="b">
         <f t="shared" si="10"/>
@@ -7764,11 +7764,11 @@
       </c>
       <c r="B187">
         <f t="shared" si="8"/>
-        <v>31.492938217113544</v>
+        <v>29.069945448780292</v>
       </c>
       <c r="C187">
         <f t="shared" si="9"/>
-        <v>11.488350342668834</v>
+        <v>14.132582948780286</v>
       </c>
       <c r="D187" t="b">
         <f t="shared" si="10"/>
@@ -7785,11 +7785,11 @@
       </c>
       <c r="B188">
         <f t="shared" si="8"/>
-        <v>31.663170315584427</v>
+        <v>29.227080289043968</v>
       </c>
       <c r="C188">
         <f t="shared" si="9"/>
-        <v>11.449216533710292</v>
+        <v>14.107742289043966</v>
       </c>
       <c r="D188" t="b">
         <f t="shared" si="10"/>
@@ -7806,11 +7806,11 @@
       </c>
       <c r="B189">
         <f t="shared" si="8"/>
-        <v>31.83340241405531</v>
+        <v>29.384215129307645</v>
       </c>
       <c r="C189">
         <f t="shared" si="9"/>
-        <v>11.409101724751743</v>
+        <v>14.081920629307639</v>
       </c>
       <c r="D189" t="b">
         <f t="shared" si="10"/>
@@ -7827,11 +7827,11 @@
       </c>
       <c r="B190">
         <f t="shared" si="8"/>
-        <v>32.00363451252619</v>
+        <v>29.541349969571318</v>
       </c>
       <c r="C190">
         <f t="shared" si="9"/>
-        <v>11.368005915793194</v>
+        <v>14.055117969571313</v>
       </c>
       <c r="D190" t="b">
         <f t="shared" si="10"/>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="B191">
         <f t="shared" si="8"/>
-        <v>32.173866610997074</v>
+        <v>29.698484809834994</v>
       </c>
       <c r="C191">
         <f t="shared" si="9"/>
-        <v>11.325929106834643</v>
+        <v>14.027334309834988</v>
       </c>
       <c r="D191" t="b">
         <f t="shared" si="10"/>
@@ -7869,11 +7869,11 @@
       </c>
       <c r="B192">
         <f t="shared" si="8"/>
-        <v>32.344098709467957</v>
+        <v>29.855619650098674</v>
       </c>
       <c r="C192">
         <f t="shared" si="9"/>
-        <v>11.282871297876103</v>
+        <v>13.998569650098673</v>
       </c>
       <c r="D192" t="b">
         <f t="shared" si="10"/>
@@ -7890,11 +7890,11 @@
       </c>
       <c r="B193">
         <f t="shared" si="8"/>
-        <v>32.51433080793884</v>
+        <v>30.012754490362351</v>
       </c>
       <c r="C193">
         <f t="shared" si="9"/>
-        <v>11.238832488917556</v>
+        <v>13.968823990362349</v>
       </c>
       <c r="D193" t="b">
         <f t="shared" si="10"/>
@@ -7911,11 +7911,11 @@
       </c>
       <c r="B194">
         <f t="shared" si="8"/>
-        <v>32.684562906409724</v>
+        <v>30.169889330626027</v>
       </c>
       <c r="C194">
         <f t="shared" si="9"/>
-        <v>11.193812679959009</v>
+        <v>13.938097330626022</v>
       </c>
       <c r="D194" t="b">
         <f t="shared" si="10"/>
@@ -7932,11 +7932,11 @@
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" si="12">A195*J$2*COS(I$2)</f>
-        <v>32.854795004880607</v>
+        <v>30.327024170889704</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" si="13">L$7+A195*J$2*SIN(I$2)-9.81*A195*A195/2</f>
-        <v>11.14781187100046</v>
+        <v>13.906389670889702</v>
       </c>
       <c r="D195" t="b">
         <f t="shared" ref="D195:D258" si="14">C195&lt;=0</f>
@@ -7953,11 +7953,11 @@
       </c>
       <c r="B196">
         <f t="shared" si="12"/>
-        <v>33.025027103351491</v>
+        <v>30.48415901115338</v>
       </c>
       <c r="C196">
         <f t="shared" si="13"/>
-        <v>11.100830062041915</v>
+        <v>13.873701011153376</v>
       </c>
       <c r="D196" t="b">
         <f t="shared" si="14"/>
@@ -7974,11 +7974,11 @@
       </c>
       <c r="B197">
         <f t="shared" si="12"/>
-        <v>33.195259201822374</v>
+        <v>30.641293851417057</v>
       </c>
       <c r="C197">
         <f t="shared" si="13"/>
-        <v>11.052867253083363</v>
+        <v>13.840031351417053</v>
       </c>
       <c r="D197" t="b">
         <f t="shared" si="14"/>
@@ -7995,11 +7995,11 @@
       </c>
       <c r="B198">
         <f t="shared" si="12"/>
-        <v>33.365491300293257</v>
+        <v>30.798428691680733</v>
       </c>
       <c r="C198">
         <f t="shared" si="13"/>
-        <v>11.003923444124819</v>
+        <v>13.805380691680728</v>
       </c>
       <c r="D198" t="b">
         <f t="shared" si="14"/>
@@ -8016,11 +8016,11 @@
       </c>
       <c r="B199">
         <f t="shared" si="12"/>
-        <v>33.535723398764148</v>
+        <v>30.955563531944417</v>
       </c>
       <c r="C199">
         <f t="shared" si="13"/>
-        <v>10.953998635166275</v>
+        <v>13.769749031944407</v>
       </c>
       <c r="D199" t="b">
         <f t="shared" si="14"/>
@@ -8037,11 +8037,11 @@
       </c>
       <c r="B200">
         <f t="shared" si="12"/>
-        <v>33.705955497235031</v>
+        <v>31.112698372208094</v>
       </c>
       <c r="C200">
         <f t="shared" si="13"/>
-        <v>10.903092826207725</v>
+        <v>13.733136372208087</v>
       </c>
       <c r="D200" t="b">
         <f t="shared" si="14"/>
@@ -8058,11 +8058,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="12"/>
-        <v>33.876187595705915</v>
+        <v>31.26983321247177</v>
       </c>
       <c r="C201">
         <f t="shared" si="13"/>
-        <v>10.851206017249179</v>
+        <v>13.695542712471767</v>
       </c>
       <c r="D201" t="b">
         <f t="shared" si="14"/>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="B202">
         <f t="shared" si="12"/>
-        <v>34.046419694176798</v>
+        <v>31.426968052735447</v>
       </c>
       <c r="C202">
         <f t="shared" si="13"/>
-        <v>10.798338208290634</v>
+        <v>13.65696805273544</v>
       </c>
       <c r="D202" t="b">
         <f t="shared" si="14"/>
@@ -8100,11 +8100,11 @@
       </c>
       <c r="B203">
         <f t="shared" si="12"/>
-        <v>34.216651792647674</v>
+        <v>31.58410289299912</v>
       </c>
       <c r="C203">
         <f t="shared" si="13"/>
-        <v>10.744489399332085</v>
+        <v>13.617412392999118</v>
       </c>
       <c r="D203" t="b">
         <f t="shared" si="14"/>
@@ -8121,11 +8121,11 @@
       </c>
       <c r="B204">
         <f t="shared" si="12"/>
-        <v>34.386883891118565</v>
+        <v>31.7412377332628</v>
       </c>
       <c r="C204">
         <f t="shared" si="13"/>
-        <v>10.689659590373537</v>
+        <v>13.576875733262792</v>
       </c>
       <c r="D204" t="b">
         <f t="shared" si="14"/>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="B205">
         <f t="shared" si="12"/>
-        <v>34.557115989589448</v>
+        <v>31.898372573526476</v>
       </c>
       <c r="C205">
         <f t="shared" si="13"/>
-        <v>10.633848781414994</v>
+        <v>13.535358073526474</v>
       </c>
       <c r="D205" t="b">
         <f t="shared" si="14"/>
@@ -8163,11 +8163,11 @@
       </c>
       <c r="B206">
         <f t="shared" si="12"/>
-        <v>34.727348088060339</v>
+        <v>32.05550741379016</v>
       </c>
       <c r="C206">
         <f t="shared" si="13"/>
-        <v>10.577056972456443</v>
+        <v>13.49285941379015</v>
       </c>
       <c r="D206" t="b">
         <f t="shared" si="14"/>
@@ -8184,11 +8184,11 @@
       </c>
       <c r="B207">
         <f t="shared" si="12"/>
-        <v>34.897580186531215</v>
+        <v>32.212642254053833</v>
       </c>
       <c r="C207">
         <f t="shared" si="13"/>
-        <v>10.5192841634979</v>
+        <v>13.44937975405383</v>
       </c>
       <c r="D207" t="b">
         <f t="shared" si="14"/>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="B208">
         <f t="shared" si="12"/>
-        <v>35.067812285002105</v>
+        <v>32.369777094317513</v>
       </c>
       <c r="C208">
         <f t="shared" si="13"/>
-        <v>10.460530354539355</v>
+        <v>13.404919094317506</v>
       </c>
       <c r="D208" t="b">
         <f t="shared" si="14"/>
@@ -8226,11 +8226,11 @@
       </c>
       <c r="B209">
         <f t="shared" si="12"/>
-        <v>35.238044383472982</v>
+        <v>32.526911934581186</v>
       </c>
       <c r="C209">
         <f t="shared" si="13"/>
-        <v>10.400795545580806</v>
+        <v>13.359477434581184</v>
       </c>
       <c r="D209" t="b">
         <f t="shared" si="14"/>
@@ -8247,11 +8247,11 @@
       </c>
       <c r="B210">
         <f t="shared" si="12"/>
-        <v>35.408276481943872</v>
+        <v>32.684046774844866</v>
       </c>
       <c r="C210">
         <f t="shared" si="13"/>
-        <v>10.340079736622258</v>
+        <v>13.313054774844858</v>
       </c>
       <c r="D210" t="b">
         <f t="shared" si="14"/>
@@ -8268,11 +8268,11 @@
       </c>
       <c r="B211">
         <f t="shared" si="12"/>
-        <v>35.578508580414756</v>
+        <v>32.841181615108539</v>
       </c>
       <c r="C211">
         <f t="shared" si="13"/>
-        <v>10.278382927663714</v>
+        <v>13.265651115108543</v>
       </c>
       <c r="D211" t="b">
         <f t="shared" si="14"/>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="B212">
         <f t="shared" si="12"/>
-        <v>35.748740678885639</v>
+        <v>32.998316455372219</v>
       </c>
       <c r="C212">
         <f t="shared" si="13"/>
-        <v>10.215705118705159</v>
+        <v>13.217266455372208</v>
       </c>
       <c r="D212" t="b">
         <f t="shared" si="14"/>
@@ -8310,11 +8310,11 @@
       </c>
       <c r="B213">
         <f t="shared" si="12"/>
-        <v>35.918972777356522</v>
+        <v>33.155451295635892</v>
       </c>
       <c r="C213">
         <f t="shared" si="13"/>
-        <v>10.15204630974662</v>
+        <v>13.167900795635894</v>
       </c>
       <c r="D213" t="b">
         <f t="shared" si="14"/>
@@ -8331,11 +8331,11 @@
       </c>
       <c r="B214">
         <f t="shared" si="12"/>
-        <v>36.089204875827413</v>
+        <v>33.312586135899579</v>
       </c>
       <c r="C214">
         <f t="shared" si="13"/>
-        <v>10.08740650078807</v>
+        <v>13.117554135899567</v>
       </c>
       <c r="D214" t="b">
         <f t="shared" si="14"/>
@@ -8352,11 +8352,11 @@
       </c>
       <c r="B215">
         <f t="shared" si="12"/>
-        <v>36.259436974298289</v>
+        <v>33.469720976163245</v>
       </c>
       <c r="C215">
         <f t="shared" si="13"/>
-        <v>10.021785691829525</v>
+        <v>13.066226476163248</v>
       </c>
       <c r="D215" t="b">
         <f t="shared" si="14"/>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="B216">
         <f t="shared" si="12"/>
-        <v>36.42966907276918</v>
+        <v>33.626855816426932</v>
       </c>
       <c r="C216">
         <f t="shared" si="13"/>
-        <v>9.9551838828709762</v>
+        <v>13.013917816426925</v>
       </c>
       <c r="D216" t="b">
         <f t="shared" si="14"/>
@@ -8394,11 +8394,11 @@
       </c>
       <c r="B217">
         <f t="shared" si="12"/>
-        <v>36.599901171240056</v>
+        <v>33.783990656690605</v>
       </c>
       <c r="C217">
         <f t="shared" si="13"/>
-        <v>9.8876010739124247</v>
+        <v>12.9606281566906</v>
       </c>
       <c r="D217" t="b">
         <f t="shared" si="14"/>
@@ -8415,11 +8415,11 @@
       </c>
       <c r="B218">
         <f t="shared" si="12"/>
-        <v>36.770133269710946</v>
+        <v>33.941125496954285</v>
       </c>
       <c r="C218">
         <f t="shared" si="13"/>
-        <v>9.8190372649538809</v>
+        <v>12.906357496954275</v>
       </c>
       <c r="D218" t="b">
         <f t="shared" si="14"/>
@@ -8436,11 +8436,11 @@
       </c>
       <c r="B219">
         <f t="shared" si="12"/>
-        <v>36.94036536818183</v>
+        <v>34.098260337217958</v>
       </c>
       <c r="C219">
         <f t="shared" si="13"/>
-        <v>9.7494924559953375</v>
+        <v>12.851105837217958</v>
       </c>
       <c r="D219" t="b">
         <f t="shared" si="14"/>
@@ -8457,11 +8457,11 @@
       </c>
       <c r="B220">
         <f t="shared" si="12"/>
-        <v>37.110597466652713</v>
+        <v>34.255395177481638</v>
       </c>
       <c r="C220">
         <f t="shared" si="13"/>
-        <v>9.6789666470367806</v>
+        <v>12.794873177481627</v>
       </c>
       <c r="D220" t="b">
         <f t="shared" si="14"/>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="12"/>
-        <v>37.280829565123597</v>
+        <v>34.412530017745311</v>
       </c>
       <c r="C221">
         <f t="shared" si="13"/>
-        <v>9.6074598380782383</v>
+        <v>12.73765951774531</v>
       </c>
       <c r="D221" t="b">
         <f t="shared" si="14"/>
@@ -8499,11 +8499,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="12"/>
-        <v>37.451061663594487</v>
+        <v>34.569664858008998</v>
       </c>
       <c r="C222">
         <f t="shared" si="13"/>
-        <v>9.5349720291196967</v>
+        <v>12.679464858008988</v>
       </c>
       <c r="D222" t="b">
         <f t="shared" si="14"/>
@@ -8520,11 +8520,11 @@
       </c>
       <c r="B223">
         <f t="shared" si="12"/>
-        <v>37.621293762065363</v>
+        <v>34.726799698272664</v>
       </c>
       <c r="C223">
         <f t="shared" si="13"/>
-        <v>9.4615032201611484</v>
+        <v>12.620289198272665</v>
       </c>
       <c r="D223" t="b">
         <f t="shared" si="14"/>
@@ -8541,11 +8541,11 @@
       </c>
       <c r="B224">
         <f t="shared" si="12"/>
-        <v>37.791525860536254</v>
+        <v>34.883934538536352</v>
       </c>
       <c r="C224">
         <f t="shared" si="13"/>
-        <v>9.3870534112025972</v>
+        <v>12.56013253853634</v>
       </c>
       <c r="D224" t="b">
         <f t="shared" si="14"/>
@@ -8562,11 +8562,11 @@
       </c>
       <c r="B225">
         <f t="shared" si="12"/>
-        <v>37.96175795900713</v>
+        <v>35.041069378800017</v>
       </c>
       <c r="C225">
         <f t="shared" si="13"/>
-        <v>9.31162260224405</v>
+        <v>12.498994878800019</v>
       </c>
       <c r="D225" t="b">
         <f t="shared" si="14"/>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="12"/>
-        <v>38.131990057478021</v>
+        <v>35.198204219063705</v>
       </c>
       <c r="C226">
         <f t="shared" si="13"/>
-        <v>9.235210793285507</v>
+        <v>12.436876219063695</v>
       </c>
       <c r="D226" t="b">
         <f t="shared" si="14"/>
@@ -8604,11 +8604,11 @@
       </c>
       <c r="B227">
         <f t="shared" si="12"/>
-        <v>38.302222155948904</v>
+        <v>35.355339059327378</v>
       </c>
       <c r="C227">
         <f t="shared" si="13"/>
-        <v>9.1578179843269645</v>
+        <v>12.373776559327371</v>
       </c>
       <c r="D227" t="b">
         <f t="shared" si="14"/>
@@ -8625,11 +8625,11 @@
       </c>
       <c r="B228">
         <f t="shared" si="12"/>
-        <v>38.47245425441978</v>
+        <v>35.51247389959105</v>
       </c>
       <c r="C228">
         <f t="shared" si="13"/>
-        <v>9.0794441753684154</v>
+        <v>12.309695899591048</v>
       </c>
       <c r="D228" t="b">
         <f t="shared" si="14"/>
@@ -8646,11 +8646,11 @@
       </c>
       <c r="B229">
         <f t="shared" si="12"/>
-        <v>38.642686352890671</v>
+        <v>35.669608739854731</v>
       </c>
       <c r="C229">
         <f t="shared" si="13"/>
-        <v>9.0000893664098633</v>
+        <v>12.244634239854722</v>
       </c>
       <c r="D229" t="b">
         <f t="shared" si="14"/>
@@ -8667,11 +8667,11 @@
       </c>
       <c r="B230">
         <f t="shared" si="12"/>
-        <v>38.812918451361547</v>
+        <v>35.826743580118404</v>
       </c>
       <c r="C230">
         <f t="shared" si="13"/>
-        <v>8.919753557451326</v>
+        <v>12.178591580118404</v>
       </c>
       <c r="D230" t="b">
         <f t="shared" si="14"/>
@@ -8688,11 +8688,11 @@
       </c>
       <c r="B231">
         <f t="shared" si="12"/>
-        <v>38.983150549832438</v>
+        <v>35.983878420382084</v>
       </c>
       <c r="C231">
         <f t="shared" si="13"/>
-        <v>8.8384367484927751</v>
+        <v>12.111567920382079</v>
       </c>
       <c r="D231" t="b">
         <f t="shared" si="14"/>
@@ -8709,11 +8709,11 @@
       </c>
       <c r="B232">
         <f t="shared" si="12"/>
-        <v>39.153382648303321</v>
+        <v>36.141013260645764</v>
       </c>
       <c r="C232">
         <f t="shared" si="13"/>
-        <v>8.7561389395342317</v>
+        <v>12.043563260645762</v>
       </c>
       <c r="D232" t="b">
         <f t="shared" si="14"/>
@@ -8730,11 +8730,11 @@
       </c>
       <c r="B233">
         <f t="shared" si="12"/>
-        <v>39.323614746774204</v>
+        <v>36.298148100909444</v>
       </c>
       <c r="C233">
         <f t="shared" si="13"/>
-        <v>8.6728601305756818</v>
+        <v>11.974577600909438</v>
       </c>
       <c r="D233" t="b">
         <f t="shared" si="14"/>
@@ -8751,11 +8751,11 @@
       </c>
       <c r="B234">
         <f t="shared" si="12"/>
-        <v>39.493846845245088</v>
+        <v>36.455282941173117</v>
       </c>
       <c r="C234">
         <f t="shared" si="13"/>
-        <v>8.5886003216171325</v>
+        <v>11.904610941173114</v>
       </c>
       <c r="D234" t="b">
         <f t="shared" si="14"/>
@@ -8772,11 +8772,11 @@
       </c>
       <c r="B235">
         <f t="shared" si="12"/>
-        <v>39.664078943715971</v>
+        <v>36.612417781436797</v>
       </c>
       <c r="C235">
         <f t="shared" si="13"/>
-        <v>8.5033595126585872</v>
+        <v>11.833663281436788</v>
       </c>
       <c r="D235" t="b">
         <f t="shared" si="14"/>
@@ -8793,11 +8793,11 @@
       </c>
       <c r="B236">
         <f t="shared" si="12"/>
-        <v>39.834311042186854</v>
+        <v>36.76955262170047</v>
       </c>
       <c r="C236">
         <f t="shared" si="13"/>
-        <v>8.417137703700039</v>
+        <v>11.761734621700466</v>
       </c>
       <c r="D236" t="b">
         <f t="shared" si="14"/>
@@ -8814,11 +8814,11 @@
       </c>
       <c r="B237">
         <f t="shared" si="12"/>
-        <v>40.004543140657738</v>
+        <v>36.92668746196415</v>
       </c>
       <c r="C237">
         <f t="shared" si="13"/>
-        <v>8.3299348947414948</v>
+        <v>11.688824961964141</v>
       </c>
       <c r="D237" t="b">
         <f t="shared" si="14"/>
@@ -8835,11 +8835,11 @@
       </c>
       <c r="B238">
         <f t="shared" si="12"/>
-        <v>40.174775239128621</v>
+        <v>37.08382230222783</v>
       </c>
       <c r="C238">
         <f t="shared" si="13"/>
-        <v>8.2417510857829477</v>
+        <v>11.614934302227827</v>
       </c>
       <c r="D238" t="b">
         <f t="shared" si="14"/>
@@ -8856,11 +8856,11 @@
       </c>
       <c r="B239">
         <f t="shared" si="12"/>
-        <v>40.345007337599505</v>
+        <v>37.240957142491503</v>
       </c>
       <c r="C239">
         <f t="shared" si="13"/>
-        <v>8.1525862768243975</v>
+        <v>11.540062642491495</v>
       </c>
       <c r="D239" t="b">
         <f t="shared" si="14"/>
@@ -8877,11 +8877,11 @@
       </c>
       <c r="B240">
         <f t="shared" si="12"/>
-        <v>40.515239436070388</v>
+        <v>37.398091982755183</v>
       </c>
       <c r="C240">
         <f t="shared" si="13"/>
-        <v>8.062440467865855</v>
+        <v>11.464209982755179</v>
       </c>
       <c r="D240" t="b">
         <f t="shared" si="14"/>
@@ -8898,11 +8898,11 @@
       </c>
       <c r="B241">
         <f t="shared" si="12"/>
-        <v>40.685471534541279</v>
+        <v>37.555226823018863</v>
       </c>
       <c r="C241">
         <f t="shared" si="13"/>
-        <v>7.9713136589073024</v>
+        <v>11.387376323018852</v>
       </c>
       <c r="D241" t="b">
         <f t="shared" si="14"/>
@@ -8919,11 +8919,11 @@
       </c>
       <c r="B242">
         <f t="shared" si="12"/>
-        <v>40.855703633012155</v>
+        <v>37.712361663282536</v>
       </c>
       <c r="C242">
         <f t="shared" si="13"/>
-        <v>7.8792058499487609</v>
+        <v>11.30956166328253</v>
       </c>
       <c r="D242" t="b">
         <f t="shared" si="14"/>
@@ -8940,11 +8940,11 @@
       </c>
       <c r="B243">
         <f t="shared" si="12"/>
-        <v>41.025935731483045</v>
+        <v>37.869496503546216</v>
       </c>
       <c r="C243">
         <f t="shared" si="13"/>
-        <v>7.7861170409902094</v>
+        <v>11.230766003546204</v>
       </c>
       <c r="D243" t="b">
         <f t="shared" si="14"/>
@@ -8961,11 +8961,11 @@
       </c>
       <c r="B244">
         <f t="shared" si="12"/>
-        <v>41.196167829953922</v>
+        <v>38.026631343809889</v>
       </c>
       <c r="C244">
         <f t="shared" si="13"/>
-        <v>7.692047232031662</v>
+        <v>11.150989343809883</v>
       </c>
       <c r="D244" t="b">
         <f t="shared" si="14"/>
@@ -8982,11 +8982,11 @@
       </c>
       <c r="B245">
         <f t="shared" si="12"/>
-        <v>41.366399928424812</v>
+        <v>38.183766184073569</v>
       </c>
       <c r="C245">
         <f t="shared" si="13"/>
-        <v>7.5969964230731186</v>
+        <v>11.070231684073558</v>
       </c>
       <c r="D245" t="b">
         <f t="shared" si="14"/>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="B246">
         <f t="shared" si="12"/>
-        <v>41.536632026895695</v>
+        <v>38.340901024337242</v>
       </c>
       <c r="C246">
         <f t="shared" si="13"/>
-        <v>7.5009646141145723</v>
+        <v>10.988493024337245</v>
       </c>
       <c r="D246" t="b">
         <f t="shared" si="14"/>
@@ -9024,11 +9024,11 @@
       </c>
       <c r="B247">
         <f t="shared" si="12"/>
-        <v>41.706864125366586</v>
+        <v>38.498035864600929</v>
       </c>
       <c r="C247">
         <f t="shared" si="13"/>
-        <v>7.4039518051560265</v>
+        <v>10.905773364600918</v>
       </c>
       <c r="D247" t="b">
         <f t="shared" si="14"/>
@@ -9045,11 +9045,11 @@
       </c>
       <c r="B248">
         <f t="shared" si="12"/>
-        <v>41.877096223837462</v>
+        <v>38.655170704864602</v>
       </c>
       <c r="C248">
         <f t="shared" si="13"/>
-        <v>7.3059579961974777</v>
+        <v>10.822072704864595</v>
       </c>
       <c r="D248" t="b">
         <f t="shared" si="14"/>
@@ -9066,11 +9066,11 @@
       </c>
       <c r="B249">
         <f t="shared" si="12"/>
-        <v>42.047328322308353</v>
+        <v>38.812305545128282</v>
       </c>
       <c r="C249">
         <f t="shared" si="13"/>
-        <v>7.2069831872389258</v>
+        <v>10.73739104512827</v>
       </c>
       <c r="D249" t="b">
         <f t="shared" si="14"/>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="B250">
         <f t="shared" si="12"/>
-        <v>42.217560420779229</v>
+        <v>38.969440385391955</v>
       </c>
       <c r="C250">
         <f t="shared" si="13"/>
-        <v>7.1070273782803852</v>
+        <v>10.651728385391948</v>
       </c>
       <c r="D250" t="b">
         <f t="shared" si="14"/>
@@ -9108,11 +9108,11 @@
       </c>
       <c r="B251">
         <f t="shared" si="12"/>
-        <v>42.387792519250119</v>
+        <v>39.126575225655635</v>
       </c>
       <c r="C251">
         <f t="shared" si="13"/>
-        <v>7.0060905693218345</v>
+        <v>10.565084725655623</v>
       </c>
       <c r="D251" t="b">
         <f t="shared" si="14"/>
@@ -9129,11 +9129,11 @@
       </c>
       <c r="B252">
         <f t="shared" si="12"/>
-        <v>42.558024617721003</v>
+        <v>39.283710065919308</v>
       </c>
       <c r="C252">
         <f t="shared" si="13"/>
-        <v>6.9041727603632914</v>
+        <v>10.477460065919299</v>
       </c>
       <c r="D252" t="b">
         <f t="shared" si="14"/>
@@ -9150,11 +9150,11 @@
       </c>
       <c r="B253">
         <f t="shared" si="12"/>
-        <v>42.728256716191879</v>
+        <v>39.440844906182981</v>
       </c>
       <c r="C253">
         <f t="shared" si="13"/>
-        <v>6.8012739514047418</v>
+        <v>10.388854406182976</v>
       </c>
       <c r="D253" t="b">
         <f t="shared" si="14"/>
@@ -9171,11 +9171,11 @@
       </c>
       <c r="B254">
         <f t="shared" si="12"/>
-        <v>42.89848881466277</v>
+        <v>39.597979746446661</v>
       </c>
       <c r="C254">
         <f t="shared" si="13"/>
-        <v>6.6973941424461927</v>
+        <v>10.299267746446652</v>
       </c>
       <c r="D254" t="b">
         <f t="shared" si="14"/>
@@ -9192,11 +9192,11 @@
       </c>
       <c r="B255">
         <f t="shared" si="12"/>
-        <v>43.068720913133646</v>
+        <v>39.755114586710334</v>
       </c>
       <c r="C255">
         <f t="shared" si="13"/>
-        <v>6.5925333334876548</v>
+        <v>10.208700086710333</v>
       </c>
       <c r="D255" t="b">
         <f t="shared" si="14"/>
@@ -9213,11 +9213,11 @@
       </c>
       <c r="B256">
         <f t="shared" si="12"/>
-        <v>43.238953011604536</v>
+        <v>39.912249426974014</v>
       </c>
       <c r="C256">
         <f t="shared" si="13"/>
-        <v>6.4866915245291032</v>
+        <v>10.117151426974015</v>
       </c>
       <c r="D256" t="b">
         <f t="shared" si="14"/>
@@ -9234,11 +9234,11 @@
       </c>
       <c r="B257">
         <f t="shared" si="12"/>
-        <v>43.409185110075413</v>
+        <v>40.069384267237687</v>
       </c>
       <c r="C257">
         <f t="shared" si="13"/>
-        <v>6.3798687155705558</v>
+        <v>10.024621767237686</v>
       </c>
       <c r="D257" t="b">
         <f t="shared" si="14"/>
@@ -9255,11 +9255,11 @@
       </c>
       <c r="B258">
         <f t="shared" si="12"/>
-        <v>43.579417208546303</v>
+        <v>40.226519107501368</v>
       </c>
       <c r="C258">
         <f t="shared" si="13"/>
-        <v>6.2720649066120089</v>
+        <v>9.9311111075013656</v>
       </c>
       <c r="D258" t="b">
         <f t="shared" si="14"/>
@@ -9276,11 +9276,11 @@
       </c>
       <c r="B259">
         <f t="shared" ref="B259:B322" si="16">A259*J$2*COS(I$2)</f>
-        <v>43.749649307017187</v>
+        <v>40.383653947765048</v>
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" si="17">L$7+A259*J$2*SIN(I$2)-9.81*A259*A259/2</f>
-        <v>6.1632800976534696</v>
+        <v>9.8366194477650453</v>
       </c>
       <c r="D259" t="b">
         <f t="shared" ref="D259:D322" si="18">C259&lt;=0</f>
@@ -9297,11 +9297,11 @@
       </c>
       <c r="B260">
         <f t="shared" si="16"/>
-        <v>43.919881405488077</v>
+        <v>40.540788788028728</v>
       </c>
       <c r="C260">
         <f t="shared" si="17"/>
-        <v>6.0535142886949131</v>
+        <v>9.7411467880287148</v>
       </c>
       <c r="D260" t="b">
         <f t="shared" si="18"/>
@@ -9318,11 +9318,11 @@
       </c>
       <c r="B261">
         <f t="shared" si="16"/>
-        <v>44.090113503958953</v>
+        <v>40.697923628292401</v>
       </c>
       <c r="C261">
         <f t="shared" si="17"/>
-        <v>5.9427674797363679</v>
+        <v>9.6446931282923956</v>
       </c>
       <c r="D261" t="b">
         <f t="shared" si="18"/>
@@ -9339,11 +9339,11 @@
       </c>
       <c r="B262">
         <f t="shared" si="16"/>
-        <v>44.260345602429844</v>
+        <v>40.855058468556081</v>
       </c>
       <c r="C262">
         <f t="shared" si="17"/>
-        <v>5.8310396707778196</v>
+        <v>9.5472584685560662</v>
       </c>
       <c r="D262" t="b">
         <f t="shared" si="18"/>
@@ -9360,11 +9360,11 @@
       </c>
       <c r="B263">
         <f t="shared" si="16"/>
-        <v>44.43057770090072</v>
+        <v>41.012193308819754</v>
       </c>
       <c r="C263">
         <f t="shared" si="17"/>
-        <v>5.7183308618192754</v>
+        <v>9.448842808819748</v>
       </c>
       <c r="D263" t="b">
         <f t="shared" si="18"/>
@@ -9381,11 +9381,11 @@
       </c>
       <c r="B264">
         <f t="shared" si="16"/>
-        <v>44.600809799371611</v>
+        <v>41.169328149083434</v>
       </c>
       <c r="C264">
         <f t="shared" si="17"/>
-        <v>5.6046410528607282</v>
+        <v>9.3494461490834269</v>
       </c>
       <c r="D264" t="b">
         <f t="shared" si="18"/>
@@ -9402,11 +9402,11 @@
       </c>
       <c r="B265">
         <f t="shared" si="16"/>
-        <v>44.771041897842494</v>
+        <v>41.326462989347114</v>
       </c>
       <c r="C265">
         <f t="shared" si="17"/>
-        <v>5.4899702439021851</v>
+        <v>9.2490684893471098</v>
       </c>
       <c r="D265" t="b">
         <f t="shared" si="18"/>
@@ -9423,11 +9423,11 @@
       </c>
       <c r="B266">
         <f t="shared" si="16"/>
-        <v>44.941273996313377</v>
+        <v>41.483597829610787</v>
       </c>
       <c r="C266">
         <f t="shared" si="17"/>
-        <v>5.3743184349436319</v>
+        <v>9.1477098296107755</v>
       </c>
       <c r="D266" t="b">
         <f t="shared" si="18"/>
@@ -9444,11 +9444,11 @@
       </c>
       <c r="B267">
         <f t="shared" si="16"/>
-        <v>45.111506094784261</v>
+        <v>41.640732669874467</v>
       </c>
       <c r="C267">
         <f t="shared" si="17"/>
-        <v>5.2576856259850899</v>
+        <v>9.0453701698744595</v>
       </c>
       <c r="D267" t="b">
         <f t="shared" si="18"/>
@@ -9465,11 +9465,11 @@
       </c>
       <c r="B268">
         <f t="shared" si="16"/>
-        <v>45.281738193255144</v>
+        <v>41.797867510138147</v>
       </c>
       <c r="C268">
         <f t="shared" si="17"/>
-        <v>5.1400718170265378</v>
+        <v>8.9420495101381334</v>
       </c>
       <c r="D268" t="b">
         <f t="shared" si="18"/>
@@ -9486,11 +9486,11 @@
       </c>
       <c r="B269">
         <f t="shared" si="16"/>
-        <v>45.451970291726028</v>
+        <v>41.95500235040182</v>
       </c>
       <c r="C269">
         <f t="shared" si="17"/>
-        <v>5.0214770080679898</v>
+        <v>8.8377478504018114</v>
       </c>
       <c r="D269" t="b">
         <f t="shared" si="18"/>
@@ -9507,11 +9507,11 @@
       </c>
       <c r="B270">
         <f t="shared" si="16"/>
-        <v>45.622202390196911</v>
+        <v>42.1121371906655</v>
       </c>
       <c r="C270">
         <f t="shared" si="17"/>
-        <v>4.9019011991094459</v>
+        <v>8.7324651906654864</v>
       </c>
       <c r="D270" t="b">
         <f t="shared" si="18"/>
@@ -9528,11 +9528,11 @@
       </c>
       <c r="B271">
         <f t="shared" si="16"/>
-        <v>45.792434488667794</v>
+        <v>42.269272030929173</v>
       </c>
       <c r="C271">
         <f t="shared" si="17"/>
-        <v>4.781344390150899</v>
+        <v>8.6262015309291655</v>
       </c>
       <c r="D271" t="b">
         <f t="shared" si="18"/>
@@ -9549,11 +9549,11 @@
       </c>
       <c r="B272">
         <f t="shared" si="16"/>
-        <v>45.962666587138678</v>
+        <v>42.426406871192853</v>
       </c>
       <c r="C272">
         <f t="shared" si="17"/>
-        <v>4.659806581192349</v>
+        <v>8.5189568711928416</v>
       </c>
       <c r="D272" t="b">
         <f t="shared" si="18"/>
@@ -9570,11 +9570,11 @@
       </c>
       <c r="B273">
         <f t="shared" si="16"/>
-        <v>46.132898685609561</v>
+        <v>42.583541711456533</v>
       </c>
       <c r="C273">
         <f t="shared" si="17"/>
-        <v>4.5372877722338103</v>
+        <v>8.4107312114565289</v>
       </c>
       <c r="D273" t="b">
         <f t="shared" si="18"/>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B274">
         <f t="shared" si="16"/>
-        <v>46.303130784080452</v>
+        <v>42.740676551720213</v>
       </c>
       <c r="C274">
         <f t="shared" si="17"/>
-        <v>4.4137879632752544</v>
+        <v>8.301524551720199</v>
       </c>
       <c r="D274" t="b">
         <f t="shared" si="18"/>
@@ -9612,11 +9612,11 @@
       </c>
       <c r="B275">
         <f t="shared" si="16"/>
-        <v>46.473362882551328</v>
+        <v>42.897811391983886</v>
       </c>
       <c r="C275">
         <f t="shared" si="17"/>
-        <v>4.2893071543167167</v>
+        <v>8.1913368919838803</v>
       </c>
       <c r="D275" t="b">
         <f t="shared" si="18"/>
@@ -9633,11 +9633,11 @@
       </c>
       <c r="B276">
         <f t="shared" si="16"/>
-        <v>46.643594981022218</v>
+        <v>43.054946232247566</v>
       </c>
       <c r="C276">
         <f t="shared" si="17"/>
-        <v>4.1638453453581619</v>
+        <v>8.0801682322475514</v>
       </c>
       <c r="D276" t="b">
         <f t="shared" si="18"/>
@@ -9654,11 +9654,11 @@
       </c>
       <c r="B277">
         <f t="shared" si="16"/>
-        <v>46.813827079493095</v>
+        <v>43.212081072511239</v>
       </c>
       <c r="C277">
         <f t="shared" si="17"/>
-        <v>4.0374025363996111</v>
+        <v>7.9680185725112267</v>
       </c>
       <c r="D277" t="b">
         <f t="shared" si="18"/>
@@ -9675,11 +9675,11 @@
       </c>
       <c r="B278">
         <f t="shared" si="16"/>
-        <v>46.984059177963978</v>
+        <v>43.369215912774912</v>
       </c>
       <c r="C278">
         <f t="shared" si="17"/>
-        <v>3.9099787274410787</v>
+        <v>7.8548879127749132</v>
       </c>
       <c r="D278" t="b">
         <f t="shared" si="18"/>
@@ -9696,11 +9696,11 @@
       </c>
       <c r="B279">
         <f t="shared" si="16"/>
-        <v>47.154291276434869</v>
+        <v>43.526350753038599</v>
       </c>
       <c r="C279">
         <f t="shared" si="17"/>
-        <v>3.7815739184825361</v>
+        <v>7.7407762530385966</v>
       </c>
       <c r="D279" t="b">
         <f t="shared" si="18"/>
@@ -9717,11 +9717,11 @@
       </c>
       <c r="B280">
         <f t="shared" si="16"/>
-        <v>47.324523374905745</v>
+        <v>43.683485593302265</v>
       </c>
       <c r="C280">
         <f t="shared" si="17"/>
-        <v>3.6521881095239834</v>
+        <v>7.6256835933022629</v>
       </c>
       <c r="D280" t="b">
         <f t="shared" si="18"/>
@@ -9738,11 +9738,11 @@
       </c>
       <c r="B281">
         <f t="shared" si="16"/>
-        <v>47.494755473376635</v>
+        <v>43.840620433565952</v>
       </c>
       <c r="C281">
         <f t="shared" si="17"/>
-        <v>3.5218213005654349</v>
+        <v>7.5096099335659474</v>
       </c>
       <c r="D281" t="b">
         <f t="shared" si="18"/>
@@ -9759,11 +9759,11 @@
       </c>
       <c r="B282">
         <f t="shared" si="16"/>
-        <v>47.664987571847512</v>
+        <v>43.997755273829618</v>
       </c>
       <c r="C282">
         <f t="shared" si="17"/>
-        <v>3.3904734916068833</v>
+        <v>7.3925552738296147</v>
       </c>
       <c r="D282" t="b">
         <f t="shared" si="18"/>
@@ -9780,11 +9780,11 @@
       </c>
       <c r="B283">
         <f t="shared" si="16"/>
-        <v>47.835219670318402</v>
+        <v>44.154890114093305</v>
       </c>
       <c r="C283">
         <f t="shared" si="17"/>
-        <v>3.2581446826483358</v>
+        <v>7.2745196140932933</v>
       </c>
       <c r="D283" t="b">
         <f t="shared" si="18"/>
@@ -9801,11 +9801,11 @@
       </c>
       <c r="B284">
         <f t="shared" si="16"/>
-        <v>48.005451768789285</v>
+        <v>44.312024954356978</v>
       </c>
       <c r="C284">
         <f t="shared" si="17"/>
-        <v>3.1248348736897995</v>
+        <v>7.1555029543569759</v>
       </c>
       <c r="D284" t="b">
         <f t="shared" si="18"/>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="B285">
         <f t="shared" si="16"/>
-        <v>48.175683867260169</v>
+        <v>44.469159794620658</v>
       </c>
       <c r="C285">
         <f t="shared" si="17"/>
-        <v>2.9905440647312389</v>
+        <v>7.0355052946206484</v>
       </c>
       <c r="D285" t="b">
         <f t="shared" si="18"/>
@@ -9843,11 +9843,11 @@
       </c>
       <c r="B286">
         <f t="shared" si="16"/>
-        <v>48.345915965731052</v>
+        <v>44.626294634884331</v>
       </c>
       <c r="C286">
         <f t="shared" si="17"/>
-        <v>2.8552722557727037</v>
+        <v>6.9145266348843322</v>
       </c>
       <c r="D286" t="b">
         <f t="shared" si="18"/>
@@ -9864,11 +9864,11 @@
       </c>
       <c r="B287">
         <f t="shared" si="16"/>
-        <v>48.516148064201943</v>
+        <v>44.783429475148012</v>
       </c>
       <c r="C287">
         <f t="shared" si="17"/>
-        <v>2.7190194468141584</v>
+        <v>6.7925669751480058</v>
       </c>
       <c r="D287" t="b">
         <f t="shared" si="18"/>
@@ -9885,11 +9885,11 @@
       </c>
       <c r="B288">
         <f t="shared" si="16"/>
-        <v>48.686380162672819</v>
+        <v>44.940564315411685</v>
       </c>
       <c r="C288">
         <f t="shared" si="17"/>
-        <v>2.5817856378556101</v>
+        <v>6.6696263154116835</v>
       </c>
       <c r="D288" t="b">
         <f t="shared" si="18"/>
@@ -9906,11 +9906,11 @@
       </c>
       <c r="B289">
         <f t="shared" si="16"/>
-        <v>48.856612261143709</v>
+        <v>45.097699155675365</v>
       </c>
       <c r="C289">
         <f t="shared" si="17"/>
-        <v>2.4435708288970588</v>
+        <v>6.5457046556753582</v>
       </c>
       <c r="D289" t="b">
         <f t="shared" si="18"/>
@@ -9927,11 +9927,11 @@
       </c>
       <c r="B290">
         <f t="shared" si="16"/>
-        <v>49.026844359614586</v>
+        <v>45.254833995939038</v>
       </c>
       <c r="C290">
         <f t="shared" si="17"/>
-        <v>2.3043750199385045</v>
+        <v>6.4208019959390299</v>
       </c>
       <c r="D290" t="b">
         <f t="shared" si="18"/>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="B291">
         <f t="shared" si="16"/>
-        <v>49.197076458085483</v>
+        <v>45.411968836202725</v>
       </c>
       <c r="C291">
         <f t="shared" si="17"/>
-        <v>2.1641982109799613</v>
+        <v>6.2949183362027128</v>
       </c>
       <c r="D291" t="b">
         <f t="shared" si="18"/>
@@ -9969,11 +9969,11 @@
       </c>
       <c r="B292">
         <f t="shared" si="16"/>
-        <v>49.36730855655636</v>
+        <v>45.569103676466398</v>
       </c>
       <c r="C292">
         <f t="shared" si="17"/>
-        <v>2.0230404020214223</v>
+        <v>6.1680536764663927</v>
       </c>
       <c r="D292" t="b">
         <f t="shared" si="18"/>
@@ -9990,11 +9990,11 @@
       </c>
       <c r="B293">
         <f t="shared" si="16"/>
-        <v>49.53754065502725</v>
+        <v>45.726238516730078</v>
       </c>
       <c r="C293">
         <f t="shared" si="17"/>
-        <v>1.8809015930628661</v>
+        <v>6.0402080167300625</v>
       </c>
       <c r="D293" t="b">
         <f t="shared" si="18"/>
@@ -10011,11 +10011,11 @@
       </c>
       <c r="B294">
         <f t="shared" si="16"/>
-        <v>49.707772753498126</v>
+        <v>45.883373356993751</v>
       </c>
       <c r="C294">
         <f t="shared" si="17"/>
-        <v>1.7377817841043282</v>
+        <v>5.9113813569937506</v>
       </c>
       <c r="D294" t="b">
         <f t="shared" si="18"/>
@@ -10032,11 +10032,11 @@
       </c>
       <c r="B295">
         <f t="shared" si="16"/>
-        <v>49.878004851969017</v>
+        <v>46.040508197257431</v>
       </c>
       <c r="C295">
         <f t="shared" si="17"/>
-        <v>1.5936809751457801</v>
+        <v>5.7815736972574214</v>
       </c>
       <c r="D295" t="b">
         <f t="shared" si="18"/>
@@ -10053,11 +10053,11 @@
       </c>
       <c r="B296">
         <f t="shared" si="16"/>
-        <v>50.048236950439893</v>
+        <v>46.197643037521104</v>
       </c>
       <c r="C296">
         <f t="shared" si="17"/>
-        <v>1.4485991661872291</v>
+        <v>5.6507850375210964</v>
       </c>
       <c r="D296" t="b">
         <f t="shared" si="18"/>
@@ -10074,11 +10074,11 @@
       </c>
       <c r="B297">
         <f t="shared" si="16"/>
-        <v>50.218469048910784</v>
+        <v>46.354777877784784</v>
       </c>
       <c r="C297">
         <f t="shared" si="17"/>
-        <v>1.3025363572286821</v>
+        <v>5.5190153777847755</v>
       </c>
       <c r="D297" t="b">
         <f t="shared" si="18"/>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="B298">
         <f t="shared" si="16"/>
-        <v>50.38870114738166</v>
+        <v>46.511912718048457</v>
       </c>
       <c r="C298">
         <f t="shared" si="17"/>
-        <v>1.1554925482701321</v>
+        <v>5.3862647180484515</v>
       </c>
       <c r="D298" t="b">
         <f t="shared" si="18"/>
@@ -10116,11 +10116,11 @@
       </c>
       <c r="B299">
         <f t="shared" si="16"/>
-        <v>50.55893324585255</v>
+        <v>46.669047558312137</v>
       </c>
       <c r="C299">
         <f t="shared" si="17"/>
-        <v>1.0074677393115863</v>
+        <v>5.2525330583121246</v>
       </c>
       <c r="D299" t="b">
         <f t="shared" si="18"/>
@@ -10137,11 +10137,11 @@
       </c>
       <c r="B300">
         <f t="shared" si="16"/>
-        <v>50.729165344323427</v>
+        <v>46.82618239857581</v>
       </c>
       <c r="C300">
         <f t="shared" si="17"/>
-        <v>0.85846193035303742</v>
+        <v>5.1178203985758017</v>
       </c>
       <c r="D300" t="b">
         <f t="shared" si="18"/>
@@ -10158,11 +10158,11 @@
       </c>
       <c r="B301">
         <f t="shared" si="16"/>
-        <v>50.899397442794317</v>
+        <v>46.98331723883949</v>
       </c>
       <c r="C301">
         <f t="shared" si="17"/>
-        <v>0.70847512139448554</v>
+        <v>4.9821267388394759</v>
       </c>
       <c r="D301" t="b">
         <f t="shared" si="18"/>
@@ -10179,11 +10179,11 @@
       </c>
       <c r="B302">
         <f t="shared" si="16"/>
-        <v>51.069629541265193</v>
+        <v>47.140452079103163</v>
       </c>
       <c r="C302">
         <f t="shared" si="17"/>
-        <v>0.55750731243595197</v>
+        <v>4.8454520791031612</v>
       </c>
       <c r="D302" t="b">
         <f t="shared" si="18"/>
@@ -10200,11 +10200,11 @@
       </c>
       <c r="B303">
         <f t="shared" si="16"/>
-        <v>51.239861639736084</v>
+        <v>47.297586919366843</v>
       </c>
       <c r="C303">
         <f t="shared" si="17"/>
-        <v>0.40555850347740829</v>
+        <v>4.7077964193668436</v>
       </c>
       <c r="D303" t="b">
         <f t="shared" si="18"/>
@@ -10221,11 +10221,11 @@
       </c>
       <c r="B304">
         <f t="shared" si="16"/>
-        <v>51.410093738206974</v>
+        <v>47.45472175963053</v>
       </c>
       <c r="C304">
         <f t="shared" si="17"/>
-        <v>0.25262869451886161</v>
+        <v>4.5691597596305229</v>
       </c>
       <c r="D304" t="b">
         <f t="shared" si="18"/>
@@ -10242,11 +10242,11 @@
       </c>
       <c r="B305">
         <f t="shared" si="16"/>
-        <v>51.580325836677851</v>
+        <v>47.611856599894203</v>
       </c>
       <c r="C305">
         <f t="shared" si="17"/>
-        <v>9.8717885560311913E-2</v>
+        <v>4.4295420998941921</v>
       </c>
       <c r="D305" t="b">
         <f t="shared" si="18"/>
@@ -10263,19 +10263,19 @@
       </c>
       <c r="B306">
         <f t="shared" si="16"/>
-        <v>51.750557935148741</v>
+        <v>47.768991440157883</v>
       </c>
       <c r="C306">
         <f t="shared" si="17"/>
-        <v>-5.6173923398240788E-2</v>
+        <v>4.2889434401578725</v>
       </c>
       <c r="D306" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="E306" t="str">
         <f t="shared" si="19"/>
-        <v>51.750557935148741</v>
+        <v/>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -10284,19 +10284,19 @@
       </c>
       <c r="B307">
         <f t="shared" si="16"/>
-        <v>51.920790033619618</v>
+        <v>47.926126280421556</v>
       </c>
       <c r="C307">
         <f t="shared" si="17"/>
-        <v>-0.21204673235678939</v>
+        <v>4.14736378042155</v>
       </c>
       <c r="D307" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="E307" t="str">
         <f t="shared" si="19"/>
-        <v>51.920790033619618</v>
+        <v/>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -10305,19 +10305,19 @@
       </c>
       <c r="B308">
         <f t="shared" si="16"/>
-        <v>52.091022132090508</v>
+        <v>48.083261120685236</v>
       </c>
       <c r="C308">
         <f t="shared" si="17"/>
-        <v>-0.3689005413153339</v>
+        <v>4.0048031206852244</v>
       </c>
       <c r="D308" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="E308" t="str">
         <f t="shared" si="19"/>
-        <v>52.091022132090508</v>
+        <v/>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -10326,19 +10326,19 @@
       </c>
       <c r="B309">
         <f t="shared" si="16"/>
-        <v>52.261254230561384</v>
+        <v>48.240395960948909</v>
       </c>
       <c r="C309">
         <f t="shared" si="17"/>
-        <v>-0.52673535027388141</v>
+        <v>3.8612614609489029</v>
       </c>
       <c r="D309" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="E309" t="str">
         <f t="shared" si="19"/>
-        <v>52.261254230561384</v>
+        <v/>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -10347,19 +10347,19 @@
       </c>
       <c r="B310">
         <f t="shared" si="16"/>
-        <v>52.431486329032275</v>
+        <v>48.397530801212589</v>
       </c>
       <c r="C310">
         <f t="shared" si="17"/>
-        <v>-0.68555115923243193</v>
+        <v>3.7167388012125784</v>
       </c>
       <c r="D310" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="E310" t="str">
         <f t="shared" si="19"/>
-        <v>52.431486329032275</v>
+        <v/>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -10368,19 +10368,19 @@
       </c>
       <c r="B311">
         <f t="shared" si="16"/>
-        <v>52.601718427503151</v>
+        <v>48.554665641476262</v>
       </c>
       <c r="C311">
         <f t="shared" si="17"/>
-        <v>-0.84534796819097124</v>
+        <v>3.571235141476258</v>
       </c>
       <c r="D311" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="E311" t="str">
         <f t="shared" si="19"/>
-        <v>52.601718427503151</v>
+        <v/>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -10389,19 +10389,19 @@
       </c>
       <c r="B312">
         <f t="shared" si="16"/>
-        <v>52.771950525974042</v>
+        <v>48.711800481739942</v>
       </c>
       <c r="C312">
         <f t="shared" si="17"/>
-        <v>-1.0061257771495207</v>
+        <v>3.4247504817399346</v>
       </c>
       <c r="D312" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="E312" t="str">
         <f t="shared" si="19"/>
-        <v>52.771950525974042</v>
+        <v/>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -10410,19 +10410,19 @@
       </c>
       <c r="B313">
         <f t="shared" si="16"/>
-        <v>52.942182624444918</v>
+        <v>48.868935322003615</v>
       </c>
       <c r="C313">
         <f t="shared" si="17"/>
-        <v>-1.1678845861080731</v>
+        <v>3.2772848220036082</v>
       </c>
       <c r="D313" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="E313" t="str">
         <f t="shared" si="19"/>
-        <v>52.942182624444918</v>
+        <v/>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -10431,19 +10431,19 @@
       </c>
       <c r="B314">
         <f t="shared" si="16"/>
-        <v>53.112414722915808</v>
+        <v>49.026070162267295</v>
       </c>
       <c r="C314">
         <f t="shared" si="17"/>
-        <v>-1.3306243950666143</v>
+        <v>3.1288381622672858</v>
       </c>
       <c r="D314" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="E314" t="str">
         <f t="shared" si="19"/>
-        <v>53.112414722915808</v>
+        <v/>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -10452,19 +10452,19 @@
       </c>
       <c r="B315">
         <f t="shared" si="16"/>
-        <v>53.282646821386692</v>
+        <v>49.183205002530975</v>
       </c>
       <c r="C315">
         <f t="shared" si="17"/>
-        <v>-1.4943452040251586</v>
+        <v>2.9794105025309676</v>
       </c>
       <c r="D315" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="E315" t="str">
         <f t="shared" si="19"/>
-        <v>53.282646821386692</v>
+        <v/>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -10473,19 +10473,19 @@
       </c>
       <c r="B316">
         <f t="shared" si="16"/>
-        <v>53.452878919857575</v>
+        <v>49.340339842794648</v>
       </c>
       <c r="C316">
         <f t="shared" si="17"/>
-        <v>-1.65904701298372</v>
+        <v>2.8290018427946322</v>
       </c>
       <c r="D316" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="E316" t="str">
         <f t="shared" si="19"/>
-        <v>53.452878919857575</v>
+        <v/>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -10494,19 +10494,19 @@
       </c>
       <c r="B317">
         <f t="shared" si="16"/>
-        <v>53.623111018328458</v>
+        <v>49.497474683058329</v>
       </c>
       <c r="C317">
         <f t="shared" si="17"/>
-        <v>-1.824729821942249</v>
+        <v>2.6776121830583222</v>
       </c>
       <c r="D317" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="E317" t="str">
         <f t="shared" si="19"/>
-        <v>53.623111018328458</v>
+        <v/>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -10515,19 +10515,19 @@
       </c>
       <c r="B318">
         <f t="shared" si="16"/>
-        <v>53.793343116799349</v>
+        <v>49.654609523322009</v>
       </c>
       <c r="C318">
         <f t="shared" si="17"/>
-        <v>-1.9913936309008022</v>
+        <v>2.5252415233219949</v>
       </c>
       <c r="D318" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="E318" t="str">
         <f t="shared" si="19"/>
-        <v>53.793343116799349</v>
+        <v/>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -10536,19 +10536,19 @@
       </c>
       <c r="B319">
         <f t="shared" si="16"/>
-        <v>53.963575215270225</v>
+        <v>49.811744363585682</v>
       </c>
       <c r="C319">
         <f t="shared" si="17"/>
-        <v>-2.1590384398593443</v>
+        <v>2.3718898635856789</v>
       </c>
       <c r="D319" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="E319" t="str">
         <f t="shared" si="19"/>
-        <v>53.963575215270225</v>
+        <v/>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -10557,19 +10557,19 @@
       </c>
       <c r="B320">
         <f t="shared" si="16"/>
-        <v>54.133807313741116</v>
+        <v>49.968879203849362</v>
       </c>
       <c r="C320">
         <f t="shared" si="17"/>
-        <v>-2.3276642488178894</v>
+        <v>2.2175572038493527</v>
       </c>
       <c r="D320" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="E320" t="str">
         <f t="shared" si="19"/>
-        <v>54.133807313741116</v>
+        <v/>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -10578,19 +10578,19 @@
       </c>
       <c r="B321">
         <f t="shared" si="16"/>
-        <v>54.304039412211992</v>
+        <v>50.126014044113035</v>
       </c>
       <c r="C321">
         <f t="shared" si="17"/>
-        <v>-2.4972710577764374</v>
+        <v>2.0622435441130307</v>
       </c>
       <c r="D321" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="E321" t="str">
         <f t="shared" si="19"/>
-        <v>54.304039412211992</v>
+        <v/>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -10599,19 +10599,19 @@
       </c>
       <c r="B322">
         <f t="shared" si="16"/>
-        <v>54.474271510682883</v>
+        <v>50.283148884376722</v>
       </c>
       <c r="C322">
         <f t="shared" si="17"/>
-        <v>-2.6678588667349956</v>
+        <v>1.9059488843766985</v>
       </c>
       <c r="D322" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="E322" t="str">
         <f t="shared" si="19"/>
-        <v>54.474271510682883</v>
+        <v/>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -10620,19 +10620,19 @@
       </c>
       <c r="B323">
         <f t="shared" ref="B323:B377" si="20">A323*J$2*COS(I$2)</f>
-        <v>54.644503609153759</v>
+        <v>50.440283724640388</v>
       </c>
       <c r="C323">
         <f t="shared" ref="C323:C377" si="21">L$7+A323*J$2*SIN(I$2)-9.81*A323*A323/2</f>
-        <v>-2.8394276756935426</v>
+        <v>1.7486732246403776</v>
       </c>
       <c r="D323" t="b">
         <f t="shared" ref="D323:D377" si="22">C323&lt;=0</f>
-        <v>1</v>
-      </c>
-      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="E323" t="str">
         <f t="shared" ref="E323:E377" si="23">IF(D323,B323,"")</f>
-        <v>54.644503609153759</v>
+        <v/>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -10641,19 +10641,19 @@
       </c>
       <c r="B324">
         <f t="shared" si="20"/>
-        <v>54.814735707624649</v>
+        <v>50.597418564904075</v>
       </c>
       <c r="C324">
         <f t="shared" si="21"/>
-        <v>-3.0119774846520855</v>
+        <v>1.5904165649040536</v>
       </c>
       <c r="D324" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="E324" t="str">
         <f t="shared" si="23"/>
-        <v>54.814735707624649</v>
+        <v/>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -10662,19 +10662,19 @@
       </c>
       <c r="B325">
         <f t="shared" si="20"/>
-        <v>54.984967806095526</v>
+        <v>50.754553405167741</v>
       </c>
       <c r="C325">
         <f t="shared" si="21"/>
-        <v>-3.1855082936106314</v>
+        <v>1.4311789051677337</v>
       </c>
       <c r="D325" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="E325" t="str">
         <f t="shared" si="23"/>
-        <v>54.984967806095526</v>
+        <v/>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -10683,19 +10683,19 @@
       </c>
       <c r="B326">
         <f t="shared" si="20"/>
-        <v>55.155199904566416</v>
+        <v>50.911688245431428</v>
       </c>
       <c r="C326">
         <f t="shared" si="21"/>
-        <v>-3.3600201025691803</v>
+        <v>1.2709602454314108</v>
       </c>
       <c r="D326" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="E326" t="str">
         <f t="shared" si="23"/>
-        <v>55.155199904566416</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -10704,19 +10704,19 @@
       </c>
       <c r="B327">
         <f t="shared" si="20"/>
-        <v>55.325432003037292</v>
+        <v>51.068823085695094</v>
       </c>
       <c r="C327">
         <f t="shared" si="21"/>
-        <v>-3.5355129115277251</v>
+        <v>1.109760585695085</v>
       </c>
       <c r="D327" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="E327" t="str">
         <f t="shared" si="23"/>
-        <v>55.325432003037292</v>
+        <v/>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
@@ -10725,19 +10725,19 @@
       </c>
       <c r="B328">
         <f t="shared" si="20"/>
-        <v>55.495664101508183</v>
+        <v>51.225957925958781</v>
       </c>
       <c r="C328">
         <f t="shared" si="21"/>
-        <v>-3.7119867204862658</v>
+        <v>0.94757992595877738</v>
       </c>
       <c r="D328" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="E328" t="str">
         <f t="shared" si="23"/>
-        <v>55.495664101508183</v>
+        <v/>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -10746,19 +10746,19 @@
       </c>
       <c r="B329">
         <f t="shared" si="20"/>
-        <v>55.665896199979073</v>
+        <v>51.383092766222461</v>
       </c>
       <c r="C329">
         <f t="shared" si="21"/>
-        <v>-3.8894415294448166</v>
+        <v>0.78441826622244548</v>
       </c>
       <c r="D329" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="E329" t="str">
         <f t="shared" si="23"/>
-        <v>55.665896199979073</v>
+        <v/>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
@@ -10767,19 +10767,19 @@
       </c>
       <c r="B330">
         <f t="shared" si="20"/>
-        <v>55.83612829844995</v>
+        <v>51.540227606486134</v>
       </c>
       <c r="C330">
         <f t="shared" si="21"/>
-        <v>-4.0678773384033562</v>
+        <v>0.62027560648613189</v>
       </c>
       <c r="D330" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="E330" t="str">
         <f t="shared" si="23"/>
-        <v>55.83612829844995</v>
+        <v/>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -10788,19 +10788,19 @@
       </c>
       <c r="B331">
         <f t="shared" si="20"/>
-        <v>56.00636039692084</v>
+        <v>51.697362446749814</v>
       </c>
       <c r="C331">
         <f t="shared" si="21"/>
-        <v>-4.247294147361913</v>
+        <v>0.45515194674980108</v>
       </c>
       <c r="D331" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="E331" t="str">
         <f t="shared" si="23"/>
-        <v>56.00636039692084</v>
+        <v/>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -10809,19 +10809,19 @@
       </c>
       <c r="B332">
         <f t="shared" si="20"/>
-        <v>56.176592495391716</v>
+        <v>51.854497287013487</v>
       </c>
       <c r="C332">
         <f t="shared" si="21"/>
-        <v>-4.4276919563204515</v>
+        <v>0.28904728701348859</v>
       </c>
       <c r="D332" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="E332" t="str">
         <f t="shared" si="23"/>
-        <v>56.176592495391716</v>
+        <v/>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -10830,19 +10830,19 @@
       </c>
       <c r="B333">
         <f t="shared" si="20"/>
-        <v>56.346824593862607</v>
+        <v>52.011632127277167</v>
       </c>
       <c r="C333">
         <f t="shared" si="21"/>
-        <v>-4.6090707652790002</v>
+        <v>0.12196162727715887</v>
       </c>
       <c r="D333" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="E333" t="str">
         <f t="shared" si="23"/>
-        <v>56.346824593862607</v>
+        <v/>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -10851,11 +10851,11 @@
       </c>
       <c r="B334">
         <f t="shared" si="20"/>
-        <v>56.517056692333483</v>
+        <v>52.16876696754084</v>
       </c>
       <c r="C334">
         <f t="shared" si="21"/>
-        <v>-4.7914305742375518</v>
+        <v>-4.610503245916675E-2</v>
       </c>
       <c r="D334" t="b">
         <f t="shared" si="22"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="E334">
         <f t="shared" si="23"/>
-        <v>56.517056692333483</v>
+        <v>52.16876696754084</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -10872,11 +10872,11 @@
       </c>
       <c r="B335">
         <f t="shared" si="20"/>
-        <v>56.687288790804374</v>
+        <v>52.32590180780452</v>
       </c>
       <c r="C335">
         <f t="shared" si="21"/>
-        <v>-4.9747713831961065</v>
+        <v>-0.21515269219549538</v>
       </c>
       <c r="D335" t="b">
         <f t="shared" si="22"/>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="E335">
         <f t="shared" si="23"/>
-        <v>56.687288790804374</v>
+        <v>52.32590180780452</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -10893,11 +10893,11 @@
       </c>
       <c r="B336">
         <f t="shared" si="20"/>
-        <v>56.85752088927525</v>
+        <v>52.483036648068193</v>
       </c>
       <c r="C336">
         <f t="shared" si="21"/>
-        <v>-5.1590931921546428</v>
+        <v>-0.3851813519318128</v>
       </c>
       <c r="D336" t="b">
         <f t="shared" si="22"/>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="E336">
         <f t="shared" si="23"/>
-        <v>56.85752088927525</v>
+        <v>52.483036648068193</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
@@ -10914,11 +10914,11 @@
       </c>
       <c r="B337">
         <f t="shared" si="20"/>
-        <v>57.02775298774614</v>
+        <v>52.640171488331873</v>
       </c>
       <c r="C337">
         <f t="shared" si="21"/>
-        <v>-5.3443960011131963</v>
+        <v>-0.55619101166814033</v>
       </c>
       <c r="D337" t="b">
         <f t="shared" si="22"/>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="E337">
         <f t="shared" si="23"/>
-        <v>57.02775298774614</v>
+        <v>52.640171488331873</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
@@ -10935,11 +10935,11 @@
       </c>
       <c r="B338">
         <f t="shared" si="20"/>
-        <v>57.197985086217017</v>
+        <v>52.797306328595546</v>
       </c>
       <c r="C338">
         <f t="shared" si="21"/>
-        <v>-5.5306798100717316</v>
+        <v>-0.72818167140444956</v>
       </c>
       <c r="D338" t="b">
         <f t="shared" si="22"/>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="E338">
         <f t="shared" si="23"/>
-        <v>57.197985086217017</v>
+        <v>52.797306328595546</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
@@ -10956,11 +10956,11 @@
       </c>
       <c r="B339">
         <f t="shared" si="20"/>
-        <v>57.368217184687907</v>
+        <v>52.954441168859226</v>
       </c>
       <c r="C339">
         <f t="shared" si="21"/>
-        <v>-5.7179446190302841</v>
+        <v>-0.90115333114078311</v>
       </c>
       <c r="D339" t="b">
         <f t="shared" si="22"/>
@@ -10968,7 +10968,7 @@
       </c>
       <c r="E339">
         <f t="shared" si="23"/>
-        <v>57.368217184687907</v>
+        <v>52.954441168859226</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
@@ -10977,11 +10977,11 @@
       </c>
       <c r="B340">
         <f t="shared" si="20"/>
-        <v>57.538449283158783</v>
+        <v>53.111576009122899</v>
       </c>
       <c r="C340">
         <f t="shared" si="21"/>
-        <v>-5.9061904279888324</v>
+        <v>-1.0751059908771055</v>
       </c>
       <c r="D340" t="b">
         <f t="shared" si="22"/>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="E340">
         <f t="shared" si="23"/>
-        <v>57.538449283158783</v>
+        <v>53.111576009122899</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -10998,11 +10998,11 @@
       </c>
       <c r="B341">
         <f t="shared" si="20"/>
-        <v>57.708681381629674</v>
+        <v>53.268710849386579</v>
       </c>
       <c r="C341">
         <f t="shared" si="21"/>
-        <v>-6.0954172369473909</v>
+        <v>-1.2500396506134379</v>
       </c>
       <c r="D341" t="b">
         <f t="shared" si="22"/>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="E341">
         <f t="shared" si="23"/>
-        <v>57.708681381629674</v>
+        <v>53.268710849386579</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -11019,11 +11019,11 @@
       </c>
       <c r="B342">
         <f t="shared" si="20"/>
-        <v>57.878913480100564</v>
+        <v>53.425845689650259</v>
       </c>
       <c r="C342">
         <f t="shared" si="21"/>
-        <v>-6.2856250459059169</v>
+        <v>-1.425954310349745</v>
       </c>
       <c r="D342" t="b">
         <f t="shared" si="22"/>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E342">
         <f t="shared" si="23"/>
-        <v>57.878913480100564</v>
+        <v>53.425845689650259</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
@@ -11040,11 +11040,11 @@
       </c>
       <c r="B343">
         <f t="shared" si="20"/>
-        <v>58.049145578571441</v>
+        <v>53.582980529913932</v>
       </c>
       <c r="C343">
         <f t="shared" si="21"/>
-        <v>-6.4768138548644743</v>
+        <v>-1.6028499700860763</v>
       </c>
       <c r="D343" t="b">
         <f t="shared" si="22"/>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="E343">
         <f t="shared" si="23"/>
-        <v>58.049145578571441</v>
+        <v>53.582980529913932</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -11061,11 +11061,11 @@
       </c>
       <c r="B344">
         <f t="shared" si="20"/>
-        <v>58.219377677042331</v>
+        <v>53.740115370177612</v>
       </c>
       <c r="C344">
         <f t="shared" si="21"/>
-        <v>-6.6689836638230204</v>
+        <v>-1.7807266298223965</v>
       </c>
       <c r="D344" t="b">
         <f t="shared" si="22"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="E344">
         <f t="shared" si="23"/>
-        <v>58.219377677042331</v>
+        <v>53.740115370177612</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -11082,11 +11082,11 @@
       </c>
       <c r="B345">
         <f t="shared" si="20"/>
-        <v>58.389609775513215</v>
+        <v>53.8972502104413</v>
       </c>
       <c r="C345">
         <f t="shared" si="21"/>
-        <v>-6.8621344727815696</v>
+        <v>-1.9595842895587268</v>
       </c>
       <c r="D345" t="b">
         <f t="shared" si="22"/>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="E345">
         <f t="shared" si="23"/>
-        <v>58.389609775513215</v>
+        <v>53.8972502104413</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
@@ -11103,11 +11103,11 @@
       </c>
       <c r="B346">
         <f t="shared" si="20"/>
-        <v>58.559841873984098</v>
+        <v>54.054385050704965</v>
       </c>
       <c r="C346">
         <f t="shared" si="21"/>
-        <v>-7.0562662817401076</v>
+        <v>-2.1394229492950387</v>
       </c>
       <c r="D346" t="b">
         <f t="shared" si="22"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="E346">
         <f t="shared" si="23"/>
-        <v>58.559841873984098</v>
+        <v>54.054385050704965</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -11124,11 +11124,11 @@
       </c>
       <c r="B347">
         <f t="shared" si="20"/>
-        <v>58.730073972454981</v>
+        <v>54.211519890968653</v>
       </c>
       <c r="C347">
         <f t="shared" si="21"/>
-        <v>-7.2513790906986628</v>
+        <v>-2.3202426090313608</v>
       </c>
       <c r="D347" t="b">
         <f t="shared" si="22"/>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="E347">
         <f t="shared" si="23"/>
-        <v>58.730073972454981</v>
+        <v>54.211519890968653</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
@@ -11145,11 +11145,11 @@
       </c>
       <c r="B348">
         <f t="shared" si="20"/>
-        <v>58.900306070925865</v>
+        <v>54.368654731232326</v>
       </c>
       <c r="C348">
         <f t="shared" si="21"/>
-        <v>-7.4474728996572068</v>
+        <v>-2.5020432687676859</v>
       </c>
       <c r="D348" t="b">
         <f t="shared" si="22"/>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="E348">
         <f t="shared" si="23"/>
-        <v>58.900306070925865</v>
+        <v>54.368654731232326</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
@@ -11166,11 +11166,11 @@
       </c>
       <c r="B349">
         <f t="shared" si="20"/>
-        <v>59.070538169396748</v>
+        <v>54.525789571496006</v>
       </c>
       <c r="C349">
         <f t="shared" si="21"/>
-        <v>-7.6445477086157538</v>
+        <v>-2.6848249285040069</v>
       </c>
       <c r="D349" t="b">
         <f t="shared" si="22"/>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="E349">
         <f t="shared" si="23"/>
-        <v>59.070538169396748</v>
+        <v>54.525789571496006</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
@@ -11187,11 +11187,11 @@
       </c>
       <c r="B350">
         <f t="shared" si="20"/>
-        <v>59.240770267867632</v>
+        <v>54.682924411759679</v>
       </c>
       <c r="C350">
         <f t="shared" si="21"/>
-        <v>-7.8426035175743039</v>
+        <v>-2.868587588240338</v>
       </c>
       <c r="D350" t="b">
         <f t="shared" si="22"/>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="E350">
         <f t="shared" si="23"/>
-        <v>59.240770267867632</v>
+        <v>54.682924411759679</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
@@ -11208,11 +11208,11 @@
       </c>
       <c r="B351">
         <f t="shared" si="20"/>
-        <v>59.411002366338515</v>
+        <v>54.840059252023359</v>
       </c>
       <c r="C351">
         <f t="shared" si="21"/>
-        <v>-8.0416403265328498</v>
+        <v>-3.0533312479766579</v>
       </c>
       <c r="D351" t="b">
         <f t="shared" si="22"/>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="E351">
         <f t="shared" si="23"/>
-        <v>59.411002366338515</v>
+        <v>54.840059252023359</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
@@ -11229,11 +11229,11 @@
       </c>
       <c r="B352">
         <f t="shared" si="20"/>
-        <v>59.581234464809398</v>
+        <v>54.997194092287032</v>
       </c>
       <c r="C352">
         <f t="shared" si="21"/>
-        <v>-8.2416581354913916</v>
+        <v>-3.2390559077129808</v>
       </c>
       <c r="D352" t="b">
         <f t="shared" si="22"/>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="E352">
         <f t="shared" si="23"/>
-        <v>59.581234464809398</v>
+        <v>54.997194092287032</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
@@ -11250,11 +11250,11 @@
       </c>
       <c r="B353">
         <f t="shared" si="20"/>
-        <v>59.751466563280275</v>
+        <v>55.154328932550698</v>
       </c>
       <c r="C353">
         <f t="shared" si="21"/>
-        <v>-8.4426569444499435</v>
+        <v>-3.4257615674493067</v>
       </c>
       <c r="D353" t="b">
         <f t="shared" si="22"/>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="E353">
         <f t="shared" si="23"/>
-        <v>59.751466563280275</v>
+        <v>55.154328932550698</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
@@ -11271,11 +11271,11 @@
       </c>
       <c r="B354">
         <f t="shared" si="20"/>
-        <v>59.921698661751165</v>
+        <v>55.311463772814385</v>
       </c>
       <c r="C354">
         <f t="shared" si="21"/>
-        <v>-8.6446367534084985</v>
+        <v>-3.6134482271856356</v>
       </c>
       <c r="D354" t="b">
         <f t="shared" si="22"/>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E354">
         <f t="shared" si="23"/>
-        <v>59.921698661751165</v>
+        <v>55.311463772814385</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -11292,11 +11292,11 @@
       </c>
       <c r="B355">
         <f t="shared" si="20"/>
-        <v>60.091930760222048</v>
+        <v>55.468598613078065</v>
       </c>
       <c r="C355">
         <f t="shared" si="21"/>
-        <v>-8.847597562367028</v>
+        <v>-3.8021158869219391</v>
       </c>
       <c r="D355" t="b">
         <f t="shared" si="22"/>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="E355">
         <f t="shared" si="23"/>
-        <v>60.091930760222048</v>
+        <v>55.468598613078065</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -11313,11 +11313,11 @@
       </c>
       <c r="B356">
         <f t="shared" si="20"/>
-        <v>60.262162858692939</v>
+        <v>55.625733453341745</v>
       </c>
       <c r="C356">
         <f t="shared" si="21"/>
-        <v>-9.0515393713255818</v>
+        <v>-3.991764546658267</v>
       </c>
       <c r="D356" t="b">
         <f t="shared" si="22"/>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="E356">
         <f t="shared" si="23"/>
-        <v>60.262162858692939</v>
+        <v>55.625733453341745</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -11334,11 +11334,11 @@
       </c>
       <c r="B357">
         <f t="shared" si="20"/>
-        <v>60.432394957163815</v>
+        <v>55.782868293605418</v>
       </c>
       <c r="C357">
         <f t="shared" si="21"/>
-        <v>-9.2564621802841245</v>
+        <v>-4.1823942063945836</v>
       </c>
       <c r="D357" t="b">
         <f t="shared" si="22"/>
@@ -11346,7 +11346,7 @@
       </c>
       <c r="E357">
         <f t="shared" si="23"/>
-        <v>60.432394957163815</v>
+        <v>55.782868293605418</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
@@ -11355,11 +11355,11 @@
       </c>
       <c r="B358">
         <f t="shared" si="20"/>
-        <v>60.602627055634706</v>
+        <v>55.940003133869098</v>
       </c>
       <c r="C358">
         <f t="shared" si="21"/>
-        <v>-9.4623659892426701</v>
+        <v>-4.3740048661309103</v>
       </c>
       <c r="D358" t="b">
         <f t="shared" si="22"/>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E358">
         <f t="shared" si="23"/>
-        <v>60.602627055634706</v>
+        <v>55.940003133869098</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -11376,11 +11376,11 @@
       </c>
       <c r="B359">
         <f t="shared" si="20"/>
-        <v>60.772859154105582</v>
+        <v>56.097137974132771</v>
       </c>
       <c r="C359">
         <f t="shared" si="21"/>
-        <v>-9.6692507982012259</v>
+        <v>-4.5665965258672401</v>
       </c>
       <c r="D359" t="b">
         <f t="shared" si="22"/>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="E359">
         <f t="shared" si="23"/>
-        <v>60.772859154105582</v>
+        <v>56.097137974132771</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -11397,11 +11397,11 @@
       </c>
       <c r="B360">
         <f t="shared" si="20"/>
-        <v>60.943091252576473</v>
+        <v>56.254272814396451</v>
       </c>
       <c r="C360">
         <f t="shared" si="21"/>
-        <v>-9.8771166071597776</v>
+        <v>-4.7601691856035657</v>
       </c>
       <c r="D360" t="b">
         <f t="shared" si="22"/>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="E360">
         <f t="shared" si="23"/>
-        <v>60.943091252576473</v>
+        <v>56.254272814396451</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -11418,11 +11418,11 @@
       </c>
       <c r="B361">
         <f t="shared" si="20"/>
-        <v>61.113323351047349</v>
+        <v>56.411407654660124</v>
       </c>
       <c r="C361">
         <f t="shared" si="21"/>
-        <v>-10.085963416118311</v>
+        <v>-4.9547228453398802</v>
       </c>
       <c r="D361" t="b">
         <f t="shared" si="22"/>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="E361">
         <f t="shared" si="23"/>
-        <v>61.113323351047349</v>
+        <v>56.411407654660124</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
@@ -11439,11 +11439,11 @@
       </c>
       <c r="B362">
         <f t="shared" si="20"/>
-        <v>61.283555449518239</v>
+        <v>56.568542494923804</v>
       </c>
       <c r="C362">
         <f t="shared" si="21"/>
-        <v>-10.295791225076862</v>
+        <v>-5.1502575050762047</v>
       </c>
       <c r="D362" t="b">
         <f t="shared" si="22"/>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="E362">
         <f t="shared" si="23"/>
-        <v>61.283555449518239</v>
+        <v>56.568542494923804</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -11460,11 +11460,11 @@
       </c>
       <c r="B363">
         <f t="shared" si="20"/>
-        <v>61.453787547989116</v>
+        <v>56.725677335187477</v>
       </c>
       <c r="C363">
         <f t="shared" si="21"/>
-        <v>-10.506600034035408</v>
+        <v>-5.3467731648125252</v>
       </c>
       <c r="D363" t="b">
         <f t="shared" si="22"/>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="E363">
         <f t="shared" si="23"/>
-        <v>61.453787547989116</v>
+        <v>56.725677335187477</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
@@ -11481,11 +11481,11 @@
       </c>
       <c r="B364">
         <f t="shared" si="20"/>
-        <v>61.624019646460006</v>
+        <v>56.882812175451157</v>
       </c>
       <c r="C364">
         <f t="shared" si="21"/>
-        <v>-10.718389842993957</v>
+        <v>-5.5442698245488558</v>
       </c>
       <c r="D364" t="b">
         <f t="shared" si="22"/>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="E364">
         <f t="shared" si="23"/>
-        <v>61.624019646460006</v>
+        <v>56.882812175451157</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
@@ -11502,11 +11502,11 @@
       </c>
       <c r="B365">
         <f t="shared" si="20"/>
-        <v>61.794251744930882</v>
+        <v>57.03994701571483</v>
       </c>
       <c r="C365">
         <f t="shared" si="21"/>
-        <v>-10.931160651952503</v>
+        <v>-5.7427474842851751</v>
       </c>
       <c r="D365" t="b">
         <f t="shared" si="22"/>
@@ -11514,7 +11514,7 @@
       </c>
       <c r="E365">
         <f t="shared" si="23"/>
-        <v>61.794251744930882</v>
+        <v>57.03994701571483</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="B366">
         <f t="shared" si="20"/>
-        <v>61.964483843401773</v>
+        <v>57.19708185597851</v>
       </c>
       <c r="C366">
         <f t="shared" si="21"/>
-        <v>-11.144912460911065</v>
+        <v>-5.9422061440215117</v>
       </c>
       <c r="D366" t="b">
         <f t="shared" si="22"/>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="E366">
         <f t="shared" si="23"/>
-        <v>61.964483843401773</v>
+        <v>57.19708185597851</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
@@ -11544,11 +11544,11 @@
       </c>
       <c r="B367">
         <f t="shared" si="20"/>
-        <v>62.134715941872649</v>
+        <v>57.354216696242183</v>
       </c>
       <c r="C367">
         <f t="shared" si="21"/>
-        <v>-11.359645269869603</v>
+        <v>-6.1426458037578229</v>
       </c>
       <c r="D367" t="b">
         <f t="shared" si="22"/>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="E367">
         <f t="shared" si="23"/>
-        <v>62.134715941872649</v>
+        <v>57.354216696242183</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -11565,11 +11565,11 @@
       </c>
       <c r="B368">
         <f t="shared" si="20"/>
-        <v>62.30494804034354</v>
+        <v>57.511351536505863</v>
       </c>
       <c r="C368">
         <f t="shared" si="21"/>
-        <v>-11.57535907882815</v>
+        <v>-6.3440664634941513</v>
       </c>
       <c r="D368" t="b">
         <f t="shared" si="22"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="E368">
         <f t="shared" si="23"/>
-        <v>62.30494804034354</v>
+        <v>57.511351536505863</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
@@ -11586,11 +11586,11 @@
       </c>
       <c r="B369">
         <f t="shared" si="20"/>
-        <v>62.47518013881443</v>
+        <v>57.66848637676955</v>
       </c>
       <c r="C369">
         <f t="shared" si="21"/>
-        <v>-11.7920538877867</v>
+        <v>-6.5464681232304756</v>
       </c>
       <c r="D369" t="b">
         <f t="shared" si="22"/>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="E369">
         <f t="shared" si="23"/>
-        <v>62.47518013881443</v>
+        <v>57.66848637676955</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
@@ -11607,11 +11607,11 @@
       </c>
       <c r="B370">
         <f t="shared" si="20"/>
-        <v>62.645412237285306</v>
+        <v>57.825621217033216</v>
       </c>
       <c r="C370">
         <f t="shared" si="21"/>
-        <v>-12.009729696745254</v>
+        <v>-6.7498507829668029</v>
       </c>
       <c r="D370" t="b">
         <f t="shared" si="22"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="E370">
         <f t="shared" si="23"/>
-        <v>62.645412237285306</v>
+        <v>57.825621217033216</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
@@ -11628,11 +11628,11 @@
       </c>
       <c r="B371">
         <f t="shared" si="20"/>
-        <v>62.815644335756197</v>
+        <v>57.982756057296903</v>
       </c>
       <c r="C371">
         <f t="shared" si="21"/>
-        <v>-12.228386505703774</v>
+        <v>-6.9542144427031047</v>
       </c>
       <c r="D371" t="b">
         <f t="shared" si="22"/>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="E371">
         <f t="shared" si="23"/>
-        <v>62.815644335756197</v>
+        <v>57.982756057296903</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
@@ -11649,11 +11649,11 @@
       </c>
       <c r="B372">
         <f t="shared" si="20"/>
-        <v>62.985876434227087</v>
+        <v>58.139890897560583</v>
       </c>
       <c r="C372">
         <f t="shared" si="21"/>
-        <v>-12.448024314662341</v>
+        <v>-7.159559102439438</v>
       </c>
       <c r="D372" t="b">
         <f t="shared" si="22"/>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="E372">
         <f t="shared" si="23"/>
-        <v>62.985876434227087</v>
+        <v>58.139890897560583</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -11670,11 +11670,11 @@
       </c>
       <c r="B373">
         <f t="shared" si="20"/>
-        <v>63.156108532697964</v>
+        <v>58.297025737824256</v>
       </c>
       <c r="C373">
         <f t="shared" si="21"/>
-        <v>-12.668643123620882</v>
+        <v>-7.3658847621757602</v>
       </c>
       <c r="D373" t="b">
         <f t="shared" si="22"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="E373">
         <f t="shared" si="23"/>
-        <v>63.156108532697964</v>
+        <v>58.297025737824256</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
@@ -11691,11 +11691,11 @@
       </c>
       <c r="B374">
         <f t="shared" si="20"/>
-        <v>63.326340631168854</v>
+        <v>58.454160578087937</v>
       </c>
       <c r="C374">
         <f t="shared" si="21"/>
-        <v>-12.890242932579419</v>
+        <v>-7.5731914219120711</v>
       </c>
       <c r="D374" t="b">
         <f t="shared" si="22"/>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="E374">
         <f t="shared" si="23"/>
-        <v>63.326340631168854</v>
+        <v>58.454160578087937</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
@@ -11712,11 +11712,11 @@
       </c>
       <c r="B375">
         <f t="shared" si="20"/>
-        <v>63.49657272963973</v>
+        <v>58.611295418351609</v>
       </c>
       <c r="C375">
         <f t="shared" si="21"/>
-        <v>-13.11282374153798</v>
+        <v>-7.7814790816484134</v>
       </c>
       <c r="D375" t="b">
         <f t="shared" si="22"/>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="E375">
         <f t="shared" si="23"/>
-        <v>63.49657272963973</v>
+        <v>58.611295418351609</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
@@ -11733,11 +11733,11 @@
       </c>
       <c r="B376">
         <f t="shared" si="20"/>
-        <v>63.666804828110621</v>
+        <v>58.76843025861529</v>
       </c>
       <c r="C376">
         <f t="shared" si="21"/>
-        <v>-13.336385550496523</v>
+        <v>-7.9907477413847303</v>
       </c>
       <c r="D376" t="b">
         <f t="shared" si="22"/>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="E376">
         <f t="shared" si="23"/>
-        <v>63.666804828110621</v>
+        <v>58.76843025861529</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
@@ -11754,11 +11754,11 @@
       </c>
       <c r="B377">
         <f t="shared" si="20"/>
-        <v>63.837036926581497</v>
+        <v>58.925565098878963</v>
       </c>
       <c r="C377">
         <f t="shared" si="21"/>
-        <v>-13.560928359455062</v>
+        <v>-8.2009974011210502</v>
       </c>
       <c r="D377" t="b">
         <f t="shared" si="22"/>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="E377">
         <f t="shared" si="23"/>
-        <v>63.837036926581497</v>
+        <v>58.925565098878963</v>
       </c>
     </row>
   </sheetData>
